--- a/core/engine/chat_engine/output.xlsx
+++ b/core/engine/chat_engine/output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,210 +441,214 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Thị trường điện lực được hình thành và phát triển dựa vào các cấp độ nào?</t>
+          <t>Hoạt động điện lực là gì?</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1. Thị trường điện lực được hình thành và phát triển theo thứ tự các cấp độ sau đây: a) Thị trường phát điện cạnh tranh; b) Thị trường bán buôn điện cạnh tranh; c) Thị trường bán lẻ điện cạnh tranh.</t>
+          <t>Hoạt động điện lực là hoạt động của tổ chức, cá nhân trong các lĩnh vực quy hoạch, đầu tư phát triển điện lực, phát điện, truyền tải điện, phân phối điện, điều độ hệ thống điện, điều hành giao dịch thị trường điện lực, bán buôn điện, bán lẻ điện, tư vấn chuyên ngành điện lực và những hoạt động khác có liên quan.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Thị trường điện lực được hình thành và phát triển dựa vào các cấp độ sau đây: thị trường phát điện cạnh tranh, thị trường bán buôn điện cạnh tranh và thị trường bán lẻ điện cạnh tranh. Điều này được quy định trong Luật Điện lực và các quy định của Thủ tướng Chính phủ về lộ trình và điều kiện để hình thành và phát triển các cấp độ thị trường điện lực.</t>
+          <t>Hoạt động điện lực là hoạt động của tổ chức, cá nhân trong các lĩnh vực quy hoạch, đầu tư phát triển điện lực, phát điện, truyền tải điện, phân phối điện, điều độ hệ thống điện, điều hành giao dịch thị trường điện lực, bán buôn điện, bán lẻ điện, tư vấn chuyên ngành điện lực và những hoạt động khác có liên quan. Đơn vị điện lực là tổ chức, cá nhân thực hiện các hoạt động này.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hành lang bảo vệ an toàn lưới điện cao áp bao gồm?</t>
+          <t>Thị trường điện lực được hình thành và phát triển dựa vào các cấp độ nào?</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2. Hành lang bảo vệ an toàn lưới điện cao áp bao gồm: a) Hành lang bảo vệ an toàn đường dây dẫn điện trên không; b) Hành lang bảo vệ an toàn đường cáp điện ngầm; c) Hành lang bảo vệ an toàn trạm điện. 3. Chính phủ quy định cụ thể về hành lang bảo vệ an toàn lưới điện cao áp.</t>
+          <t>1. Thị trường điện lực được hình thành và phát triển theo thứ tự các cấp độ sau đây: a) Thị trường phát điện cạnh tranh; b) Thị trường bán buôn điện cạnh tranh; c) Thị trường bán lẻ điện cạnh tranh.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hành lang bảo vệ an toàn lưới điện cao áp bao gồm hành lang bảo vệ an toàn đường dây dẫn điện trên không, hành lang bảo vệ an toàn đường cáp điện ngầm và hành lang bảo vệ an toàn trạm điện.</t>
+          <t>Thị trường điện lực được hình thành và phát triển dựa vào các cấp độ sau đây: thị trường phát điện cạnh tranh, thị trường bán buôn điện cạnh tranh, và thị trường bán lẻ điện cạnh tranh. Điều 18 của pháp lệnh quy định rằng Thủ tướng Chính phủ sẽ quy định lộ trình và các điều kiện để hình thành và phát triển các cấp độ thị trường điện lực.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Thế nào là doanh nghiệp được coi là có vị trí độc quyền?</t>
+          <t>Hành lang bảo vệ an toàn lưới điện cao áp bao gồm?</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Doanh nghiệp được coi là có vị trí độc quyền nếu không có doanh nghiệp nào cạnh tranh về hàng hóa, dịch vụ mà doanh nghiệp đó kinh doanh trên thị trường liên quan.</t>
+          <t>2. Hành lang bảo vệ an toàn lưới điện cao áp bao gồm: a) Hành lang bảo vệ an toàn đường dây dẫn điện trên không; b) Hành lang bảo vệ an toàn đường cáp điện ngầm; c) Hành lang bảo vệ an toàn trạm điện. 3. Chính phủ quy định cụ thể về hành lang bảo vệ an toàn lưới điện cao áp.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Doanh nghiệp được coi là có vị trí độc quyền khi không có doanh nghiệp nào cạnh tranh về hàng hóa, dịch vụ mà doanh nghiệp đó kinh doanh trên thị trường liên quan.</t>
+          <t>Hành lang bảo vệ an toàn lưới điện cao áp bao gồm hành lang bảo vệ an toàn đường dây dẫn điện trên không, hành lang bảo vệ an toàn đường cáp điện ngầm và hành lang bảo vệ an toàn trạm điện.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hợp tác quốc tế trong tố tụng cạnh tranh được thực hiện trên nguyên tắc nào?</t>
+          <t>Thế nào là doanh nghiệp được coi là có vị trí độc quyền?</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hợp tác quốc tế trong tố tụng cạnh tranh được thực hiện trên nguyên
-                            tắc tôn trọng độc lập, chủ quyền, toàn vẹn lãnh thổ quốc gia, không can thiệp
-                            vào công việc nội bộ của nhau, bình đẳng và cùng có lợi, phù hợp với Hiến
-                            pháp, pháp luật của Việt Nam và điều ước quốc tế mà nước Cộng hòa xã hội chủ
-                            nghĩa Việt Nam là thành viên.</t>
+          <t>Doanh nghiệp được coi là có vị trí độc quyền nếu không có doanh nghiệp nào cạnh tranh về hàng hóa, dịch vụ mà doanh nghiệp đó kinh doanh trên thị trường liên quan.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hợp tác quốc tế trong tố tụng cạnh tranh được thực hiện trên nguyên tắc tôn trọng độc lập, chủ quyền, toàn vẹn lãnh thổ quốc gia, không can thiệp vào công việc nội bộ của nhau, bình đẳng và cùng có lợi, phù hợp với Hiến pháp, pháp luật của Việt Nam và điều ước quốc tế mà nước Cộng hoà xã hội chủ nghĩa Việt Nam là thành viên.</t>
+          <t>Doanh nghiệp được coi là có vị trí độc quyền khi không có doanh nghiệp nào cạnh tranh về hàng hóa, dịch vụ mà doanh nghiệp đó kinh doanh trên thị trường liên quan. Điều này không bao gồm doanh nghiệp có thị phần ít hơn 10% trên thị trường đó.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Người phiên dịch trong tố tụng cạnh tranh được quy định trong luật là gì?</t>
+          <t>Khí thiên nhiên là khí gì?</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Người phiên dịch là người có khả năng dịch từ một ngôn ngữ khác ra
-                        tiếng Việt và ngược lại trong trường hợp có người tham gia tố tụng cạnh tranh
-                        không sử dụng được tiếng Việt. Người phiên dịch có thể được Cơ quan điều tra
-                        vụ việc cạnh tranh, Hội đồng xử lý vụ việc hạn chế cạnh tranh yêu cầu để phiên
-                        dịch hoặc do bên khiếu nại, bên bị điều tra hoặc người có quyền lợi và nghĩa vụ
-                        liên quan lựa chọn hoặc do các bên thỏa thuận lựa chọn nhưng phải được Cơ
-                        quan điều tra vụ việc cạnh tranh, Hội đồng xử lý vụ việc hạn chế cạnh tranh
-                        chấp thuận.</t>
+          <t>"Khí thiên nhiên" là toàn bộ hydrocarbon ở thể khí, khai thác từ giếng khoan, bao gồm cả khí ẩm, khí khô, khí đầu giếng khoan và khí còn lại sau khi chiết xuất hydrocarbon lỏng từ khí ẩm.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Người phiên dịch trong tố tụng cạnh tranh được quy định trong luật là người có khả năng dịch từ một ngôn ngữ khác ra tiếng Việt và ngược lại trong trường hợp có người tham gia tố tụng cạnh tranh không sử dụng được tiếng Việt. Người phiên dịch có quyền và nghĩa vụ như sau: có mặt theo giấy triệu tập, phải phiên dịch trung thực, khách quan, đúng nghĩa, đề nghị người tiến hành tố tụng cạnh tranh giải thích thêm nội dung cần phiên dịch, không được tiếp xúc với người tham gia tố tụng cạnh tranh khác nếu việc tiếp xúc đó làm ảnh hưởng đến tính trung thực, khách quan, đúng nghĩa khi phiên dịch, và được thanh toán các chi phí có liên quan theo quy định của pháp luật.</t>
+          <t>Câu hỏi của bạn không hợp lệ, hoặc không liên quan đến Pháp Luật. Vui lòng kiểm tra lại và cung cấp thêm thông tin cho tôi</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Người giám định là gì?</t>
+          <t>Hợp tác quốc tế trong tố tụng cạnh tranh được thực hiện trên nguyên tắc nào?</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>"Người giám định là người am hiểu và có kiến thức cần thiết về lĩnh vực
-                        cần giám định được Thủ trưởng Cơ quan điều tra vụ việc cạnh tranh, Hội đồng
-                        xử lý vụ việc hạn chế cạnh tranh trưng cầu hoặc được các bên liên quan đề nghị
-                        giám định trong trường hợp Thủ trưởng Cơ quan điều tra vụ việc cạnh tranh,
-                        Hội đồng xử lý vụ việc hạn chế cạnh tranh từ chối trưng cầu giám định.</t>
+          <t>Hợp tác quốc tế trong tố tụng cạnh tranh được thực hiện trên nguyên tắc tôn trọng độc lập, chủ quyền, toàn vẹn lãnh thổ quốc gia, không can thiệp vào công việc nội bộ của nhau, bình đẳng và cùng có lợi, phù hợp với Hiến pháp, pháp luật của Việt Nam và điều ước quốc tế mà nước Cộng hòa xã hội chủ nghĩa Việt Nam là thành viên.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Người giám định là người am hiểu và có kiến thức cần thiết về lĩnh vực cần giám định. Người giám định có quyền và nghĩa vụ như đọc tài liệu, đặt câu hỏi, có mặt theo giấy triệu tập, trả lời vấn đề liên quan đến việc giám định và kết luận giám định một cách trung thực, có căn cứ, khách quan. Ngoài ra, người giám định cũng phải bảo quản tài liệu, không tự mình thu thập tài liệu, không tiếp xúc riêng với người tham gia tố tụng cạnh tranh khác, không tiết lộ thông tin bí mật và không thông báo kết quả giám định cho người khác.</t>
+          <t>Hợp tác quốc tế trong tố tụng cạnh tranh được thực hiện trên nguyên tắc tôn trọng độc lập, chủ quyền, toàn vẹn lãnh thổ quốc gia, không can thiệp vào công việc nội bộ của nhau, bình đẳng và cùng có lợi, phù hợp với Hiến pháp, pháp luật của Việt Nam và điều ước quốc tế mà nước Cộng hòa xã hội chủ nghĩa Việt Nam là thành viên. Trong trường hợp nước Việt Nam chưa ký kết hoặc chưa gia nhập các điều ước quốc tế liên quan, việc hợp tác quốc tế trong tố tụng cạnh tranh sẽ được thực hiện theo nguyên tắc có đi có lại nhưng không vi phạm Hiến pháp, pháp luật của Việt Nam, phù hợp với pháp luật quốc tế và tập quán quốc tế.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Thế nào là nhóm doanh nghiệp được coi là có vị trí thống lĩnh thị trường</t>
+          <t>Người phiên dịch trong tố tụng cạnh tranh được quy định trong luật là gì?</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nhóm doanh nghiệp được coi là có vị trí thống lĩnh thị trường nếu cùng
-                        hành động gây tác động hạn chế cạnh tranh và có sức mạnh thị trường đáng kể
-                        được xác định theo quy định tại Điều 26 của Luật này hoặc có tổng thị phần
-                        thuộc một trong các trường hợp sau đây:
-                        a) Hai doanh nghiệp có tổng thị phần từ 50% trở lên trên thị trường liên quan;
-                        b) Ba doanh nghiệp có tổng thị phần từ 65% trở lên trên thị trường liên quan;
-                        c) Bốn doanh nghiệp có tổng thị phần từ 75% trở lên trên thị trường liên quan;
-                        d) Năm doanh nghiệp trở lên có tổng thị phần từ 85% trở lên trên thị
-                        trường liên quan.</t>
+          <t>Người phiên dịch là người có khả năng dịch từ một ngôn ngữ khác ra tiếng Việt và ngược lại trong trường hợp có người tham gia tố tụng cạnh tranh không sử dụng được tiếng Việt. Người phiên dịch có thể được Cơ quan điều tra vụ việc cạnh tranh, Hội đồng xử lý vụ việc hạn chế cạnh tranh yêu cầu để phiên dịch hoặc do bên khiếu nại, bên bị điều tra hoặc người có quyền lợi và nghĩa vụ liên quan lựa chọn hoặc do các bên thỏa thuận lựa chọn nhưng phải được Cơ quan điều tra vụ việc cạnh tranh, Hội đồng xử lý vụ việc hạn chế cạnh tranh chấp thuận.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nhóm doanh nghiệp được coi là có vị trí thống lĩnh thị trường khi có sức mạnh thị trường đáng kể được xác định theo quy định tại Điều 26 của Luật hoặc có thị phần từ 30% trở lên trên thị trường liên quan.</t>
+          <t>Người phiên dịch trong tố tụng cạnh tranh được quy định trong luật là người có khả năng dịch từ một ngôn ngữ khác ra tiếng Việt và ngược lại trong trường hợp có người tham gia tố tụng cạnh tranh không sử dụng được tiếng Việt. Người phiên dịch có quyền và nghĩa vụ như sau: phải có mặt theo giấy triệu tập, phiên dịch trung thực, khách quan, đúng nghĩa, đề nghị người tiến hành tố tụng cạnh tranh giải thích thêm nội dung cần phiên dịch, không được tiếp xúc với người tham gia tố tụng cạnh tranh khác nếu việc tiếp xúc đó làm ảnh hưởng đến tính trung thực, khách quan, đúng nghĩa khi phiên dịch, và được thanh toán các chi phí có liên quan theo quy định của pháp luật.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hành vi cạnh tranh không lành mạnh là hành vi gì?</t>
+          <t>Người giám định là gì?</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hành vi cạnh tranh không lành mạnh là hành vi của doanh nghiệp trái
-                        với nguyên tắc thiện chí, trung thực, tập quán thương mại và các chuẩn mực
-                        khác trong kinh doanh, gây thiệt hại hoặc có thể gây thiệt hại đến quyền và lợi
-                        ích hợp pháp của doanh nghiệp khác.</t>
+          <t>"Người giám định là người am hiểu và có kiến thức cần thiết về lĩnh vực cần giám định được Thủ trưởng Cơ quan điều tra vụ việc cạnh tranh, Hội đồng xử lý vụ việc hạn chế cạnh tranh trưng cầu hoặc được các bên liên quan đề nghị giám định trong trường hợp Thủ trưởng Cơ quan điều tra vụ việc cạnh tranh, Hội đồng xử lý vụ việc hạn chế cạnh tranh từ chối trưng cầu giám định.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Hành vi cạnh tranh không lành mạnh là hành vi của doanh nghiệp trái với nguyên tắc thiện chí, trung thực, tập quán thương mại và các chuẩn mực khác trong kinh doanh, gây thiệt hại hoặc có thể gây thiệt hại đến quyền và lợi ích hợp pháp của doanh nghiệp khác.</t>
+          <t>Người giám định là người am hiểu và có kiến thức cần thiết về lĩnh vực cần giám định được Thủ trưởng Cơ quan điều tra vụ việc cạnh tranh, Hội đồng xử lý vụ việc hạn chế cạnh tranh trưng cầu hoặc được các bên liên quan đề nghị giám định trong trường hợp Thủ trưởng Cơ quan điều tra vụ việc cạnh tranh, Hội đồng xử lý vụ việc hạn chế cạnh tranh từ chối trưng cầu giám định.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Vụ việc cạnh tranh là gì?</t>
+          <t>Thế nào là nhóm doanh nghiệp được coi là có vị trí thống lĩnh thị trường</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Vụ việc cạnh tranh là vụ việc có dấu hiệu vi phạm pháp luật về cạnh
-                        tranh bị điều tra, xử lý theo quy định của Luật này, bao gồm vụ việc hạn chế
-                        cạnh tranh, vụ việc vi phạm quy định về tập trung kinh tế và vụ việc cạnh tranh
-                        không lành mạnh.</t>
+          <t>Nhóm doanh nghiệp được coi là có vị trí thống lĩnh thị trường nếu cùng hành động gây tác động hạn chế cạnh tranh và có sức mạnh thị trường đáng kể được xác định theo quy định tại Điều 26 của Luật này hoặc có tổng thị phần thuộc một trong các trường hợp sau đây:
+a) Hai doanh nghiệp có tổng thị phần từ 50% trở lên trên thị trường liên quan;
+b) Ba doanh nghiệp có tổng thị phần từ 65% trở lên trên thị trường liên quan;
+c) Bốn doanh nghiệp có tổng thị phần từ 75% trở lên trên thị trường liên quan;
+d) Năm doanh nghiệp trở lên có tổng thị phần từ 85% trở lên trên thị trường liên quan.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vụ việc cạnh tranh là vụ việc có dấu hiệu vi phạm pháp luật về cạnh tranh bị điều tra, xử lý theo quy định của Luật này, bao gồm vụ việc hạn chế cạnh tranh, vụ việc vi phạm quy định về tập trung kinh tế và vụ việc cạnh tranh không lành mạnh.</t>
+          <t>Nhóm doanh nghiệp được coi là có vị trí thống lĩnh thị trường khi có sức mạnh thị trường đáng kể được xác định theo quy định tại Điều 26 của Luật hoặc có thị phần từ 30% trở lên trên thị trường liên quan.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Hành vi cạnh tranh không lành mạnh là hành vi gì?</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hành vi cạnh tranh không lành mạnh là hành vi của doanh nghiệp trái với nguyên tắc thiện chí, trung thực, tập quán thương mại và các chuẩn mực khác trong kinh doanh, gây thiệt hại hoặc có thể gây thiệt hại đến quyền và lợi ích hợp pháp của doanh nghiệp khác.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Hành vi cạnh tranh không lành mạnh là các hành vi bị cấm theo quy định của Luật về cạnh tranh, bao gồm việc xâm phạm thông tin bí mật trong kinh doanh, ép buộc khách hàng hoặc đối tác kinh doanh của doanh nghiệp khác bằng hành vi đe dọa hoặc cưỡng ép, cũng như bán hàng hóa hoặc cung ứng dịch vụ dưới giá thành toàn bộ dẫn đến loại bỏ doanh nghiệp khác cùng kinh doanh loại hàng hóa, dịch vụ đó.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Vụ việc cạnh tranh là gì?</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Vụ việc cạnh tranh là vụ việc có dấu hiệu vi phạm pháp luật về cạnh tranh bị điều tra, xử lý theo quy định của Luật này, bao gồm vụ việc hạn chế cạnh tranh, vụ việc vi phạm quy định về tập trung kinh tế và vụ việc cạnh tranh không lành mạnh.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Vụ việc cạnh tranh là vụ việc có dấu hiệu vi phạm pháp luật về cạnh tranh bị điều tra, xử lý theo quy định của Luật này, bao gồm vụ việc hạn chế cạnh tranh, vụ việc vi phạm quy định về tập trung kinh tế và vụ việc cạnh tranh không lành mạnh.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Các nhà thầu có nghĩa vụ gì theo quy định?</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Nhà thầu có các nghĩa vụ sau đây:
-                        1. Tuân thủ pháp luật Việt Nam;
-                        2. Thực hiện các cam kết ghi trong hợp đồng dầu khí;
-                        3. Nộp các loại thuế, lệ phí theo quy định của pháp luật Việt Nam;
-                        4. Chuyển giao công nghệ; đào tạo, sử dụng cán bộ, công nhân Việt Nam và bảo đảm quyền
-                        lợi của người lao động;
-                        5. Thực hiện các biện pháp bảo vệ môi trường;
-                        6. Báo cáo hoạt động dầu khí với cơ quan quản lý Nhà nước có thẩm quyền và Tổng công ty
-                        dầu khí Việt Nam;
-                        7. Cung cấp các tài liệu cho đoàn thanh tra;
-                        8. Thu dọn các công trình, thiết bị, phương tiện sau khi kết thúc hoạt động dầu khí theo yêu
-                        cầu của cơ quan quản lý Nhà nước có thẩm quyền;
-                        9. Bán tại thị trường Việt Nam một phần dầu khí thuộc quyền sở hữu của mình khi Chính phủ
-                        Việt Nam yêu cầu.</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
+1. Tuân thủ pháp luật Việt Nam;
+2. Thực hiện các cam kết ghi trong hợp đồng dầu khí;
+3. Nộp các loại thuế, lệ phí theo quy định của pháp luật Việt Nam;
+4. Chuyển giao công nghệ; đào tạo, sử dụng cán bộ, công nhân Việt Nam và bảo đảm quyền lợi của người lao động;
+5. Thực hiện các biện pháp bảo vệ môi trường;
+6. Báo cáo hoạt động dầu khí với cơ quan quản lý Nhà nước có thẩm quyền và Tổng công ty dầu khí Việt Nam;
+8. Thu dọn các công trình, thiết bị, phương tiện sau khi kết thúc hoạt động dầu khí theo yêu cầu của cơ quan quản lý Nhà nước có thẩm quyền;
+9. Bán tại thị trường Việt Nam một phần dầu khí thuộc quyền sở hữu của mình khi Chính phủ Việt Nam yêu cầu.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>Theo quy định, các nhà thầu có nghĩa vụ như sau:
 1. Tuân thủ pháp luật Việt Nam.
@@ -655,366 +659,1669 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Ta cần giải quyết các tranh chấp phát sinh từ hợp đồng dầu khí như thế nào?</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Các tranh chấp phát sinh từ hợp đồng dầu khí trước hết phải được giải quyết thông qua
-                        thương lượng và hoà giải.
-                        Trong trường hợp các bên tranh chấp không thể hoà giải được với nhau, nếu các bên tranh
-                        chấp là tổ chức, cá nhân Việt Nam, thì vụ tranh chấp được giải quyết theo quy định của pháp
-                        luật Việt Nam; nếu bên tranh chấp là tổ chức, cá nhân nước ngoài, thì vụ tranh chấp được giải
-                        quyết theo các quy định của Luật đầu tư nước ngoài tại Việt Nam.</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Để giải quyết các tranh chấp phát sinh từ hợp đồng dầu khí, trước hết cần thực hiện thông qua thương lượng và hoà giải. Nếu không thể hoà giải được, vụ tranh chấp sẽ được giải quyết theo quy định của pháp luật Việt Nam nếu các bên tranh chấp là tổ chức, cá nhân Việt Nam. Nếu bên tranh chấp là tổ chức, cá nhân nước ngoài, thì vụ tranh chấp sẽ được giải quyết theo các quy định của Luật đầu tư nước ngoài tại Việt Nam.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Các đối tượng được tham gia thị trường điện lực</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1. Đơn vị phát điện. 
-                        2. Đơn vị truyền tải điện. 
-                        3. Đơn vị phân phối điện. 
-                        4. Đơn vị bán buôn điện. 
-                        5. Đơn vị bán lẻ điện. 
-                        6. Đơn vị điều độ hệ thống điện quốc gia. 
-                        7. Đơn vị điều hành giao dịch thị trường điện lực. 
-                        8. Khách hàng sử dụng điện.</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Các đối tượng được tham gia thị trường điện lực bao gồm đơn vị điều hành giao dịch thị trường điện lực, đơn vị phát điện, và các đơn vị cung cấp dịch vụ phụ trợ. Đơn vị điều hành giao dịch thị trường điện lực chịu trách nhiệm điều hoà, phối hợp hoạt động giao dịch mua bán điện và dịch vụ phụ trợ trên thị trường điện lực. Điều này được quy định trong Luật về hoạt động, điều hành giao dịch trên thị trường điện lực.</t>
-        </is>
-      </c>
-    </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hành lang an toàn lưới điện cao áp là gì?</t>
+          <t>Ta cần giải quyết các tranh chấp phát sinh từ hợp đồng dầu khí như thế nào?</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Hành lang an toàn lưới điện cao áp là khoảng không gian giới hạn dọc 
-                        theo đường dây tải điện hoặc bao quanh trạm điện và được quy định cụ thể theo 
-                        từng cấp điện áp.</t>
+          <t>Các tranh chấp phát sinh từ hợp đồng dầu khí trước hết phải được giải quyết thông qua thương lượng và hoà giải. Trong trường hợp các bên tranh chấp không thể hoà giải được với nhau, nếu các bên tranh chấp là tổ chức, cá nhân Việt Nam, thì vụ tranh chấp được giải quyết theo quy định của pháp luật Việt Nam; nếu bên tranh chấp là tổ chức, cá nhân nước ngoài, thì vụ tranh chấp được giải quyết theo các quy định của Luật đầu tư nước ngoài tại Việt Nam.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Hành lang an toàn lưới điện cao áp là khoảng không gian giới hạn dọc theo đường dây tải điện hoặc bao quanh trạm điện và được quy định cụ thể theo từng cấp điện áp. Hành lang bảo vệ an toàn lưới điện cao áp bao gồm hành lang bảo vệ an toàn đường dây dẫn điện trên không, hành lang bảo vệ an toàn đường cáp điện ngầm, và hành lang bảo vệ an toàn trạm điện. Chính phủ quy định cụ thể về hành lang bảo vệ an toàn lưới điện cao áp. Trong trường hợp các bên liên quan không thoả thuận, cơ quan nhà nước có thẩm quyền sẽ giải quyết và triển khai thực hiện theo quyết định của mình.</t>
+          <t>Để giải quyết các tranh chấp phát sinh từ hợp đồng dầu khí, trước hết cần thông qua thương lượng và hoà giải. Nếu không thể hoà giải được, vụ tranh chấp sẽ được giải quyết theo quy định của pháp luật Việt Nam nếu các bên tranh chấp là tổ chức, cá nhân Việt Nam. Nếu bên tranh chấp là tổ chức, cá nhân nước ngoài, thì vụ tranh chấp sẽ được giải quyết theo các quy định của Luật đầu tư nước ngoài tại Việt Nam.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Các đối tượng được tham gia thị trường điện lực</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1. Đơn vị phát điện. 
+2. Đơn vị truyền tải điện. 
+3. Đơn vị phân phối điện. 
+4. Đơn vị bán buôn điện. 
+5. Đơn vị bán lẻ điện. 
+6. Đơn vị điều độ hệ thống điện quốc gia. 
+7. Đơn vị điều hành giao dịch thị trường điện lực. 
+8. Khách hàng sử dụng điện.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Các đối tượng được tham gia thị trường điện lực bao gồm:
+1. Đơn vị điều hành giao dịch thị trường điện lực, chịu trách nhiệm điều hoà, phối hợp hoạt động giao dịch mua bán điện và dịch vụ phụ trợ trên thị trường điện lực.
+2. Đơn vị phát điện.
+Thông tin chi tiết về các đối tượng tham gia thị trường điện lực có thể được tìm thấy trong Điều 21 và Điều 19 của Luật điện lực.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Hành lang an toàn lưới điện cao áp là gì?</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Hành lang an toàn lưới điện cao áp là khoảng không gian giới hạn dọc theo đường dây tải điện hoặc bao quanh trạm điện và được quy định cụ thể theo từng cấp điện áp.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Hành lang an toàn lưới điện cao áp là khoảng không gian giới hạn dọc theo đường dây tải điện hoặc bao quanh trạm điện và được quy định cụ thể theo từng cấp điện áp. Hành lang bảo vệ an toàn lưới điện cao áp bao gồm hành lang bảo vệ an toàn đường dây dẫn điện trên không, hành lang bảo vệ an toàn đường cáp điện ngầm, và hành lang bảo vệ an toàn trạm điện. Chính phủ quy định cụ thể về hành lang bảo vệ an toàn lưới điện cao áp. Trong trường hợp các bên liên quan không thoả thuận, cơ quan nhà nước có thẩm quyền sẽ giải quyết và triển khai thực hiện theo quyết định của mình.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>Người vận hành, sửa chữa điện ở nông thôn, miền núi, hải đảo phải bảo đảm các tiêu chuẩn nào?</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Người vận hành, sửa chữa điện ở nông thôn, miền núi, hải đảo phải bảo 
-                        đảm các tiêu chuẩn sau: 
-                        a) Đủ 18 tuổi trở lên; 
-                        b) Được cơ quan y tế chứng nhận đủ sức khoẻ để làm việc; 
-                        c) Có chứng chỉ hoặc bằng tốt nghiệp chuyên ngành điện do cơ sở dạy nghề
-                        cấp; 
-                        d) Có thẻ an toàn do cơ quan quản lý nhà nước về hoạt động điện lực và sử
-                        dụng điện cấp tỉnh cấp.</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Để bảo đảm an toàn khi vận hành và sửa chữa điện ở nông thôn, miền núi, hải đảo, người phải tuân thủ các tiêu chuẩn sau: 
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Người vận hành, sửa chữa điện ở nông thôn, miền núi, hải đảo phải bảo đảm các tiêu chuẩn sau: 
+a) Đủ 18 tuổi trở lên; 
+b) Được cơ quan y tế chứng nhận đủ sức khoẻ để làm việc; 
+c) Có chứng chỉ hoặc bằng tốt nghiệp chuyên ngành điện do cơ sở dạy nghề cấp; 
+d) Có thẻ an toàn do cơ quan quản lý nhà nước về hoạt động điện lực và sử dụng điện cấp tỉnh cấp.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Để bảo đảm an toàn khi vận hành và sửa chữa điện ở nông thôn, miền núi, hải đảo, người phải đảm bảo các tiêu chuẩn sau: 
 1. Đủ 18 tuổi trở lên.
 2. Được cơ quan y tế chứng nhận đủ sức khỏe để làm việc.
 3. Có chứng chỉ hoặc bằng tốt nghiệp chuyên ngành điện do cơ sở dạy nghề cấp.
 4. Có thẻ an toàn do cơ quan quản lý nhà nước về hoạt động điện lực và sử dụng điện cấp tỉnh cấp. 
-Điều này giúp đảm bảo an toàn cho bản thân và người dân khi thực hiện các công việc liên quan đến điện.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+Chỉ có đơn vị điện lực mới được phép tổ chức sửa chữa, lắp đặt các trang thiết bị điện, mạng điện trong phạm vi quản lý của mình. Điều này giúp đảm bảo an toàn và hiệu quả trong hoạt động điện lực và sử dụng điện ở các khu vực đặc biệt như nông thôn, miền núi, hải đảo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Hành lang an toàn lưới điện cao áp là gì?</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1. Hành lang an toàn lưới điện cao áp là khoảng không gian giới hạn dọc 
-                        theo đường dây tải điện hoặc bao quanh trạm điện và được quy định cụ thể theo 
-                        từng cấp điện áp. 
-                        2. Hành lang bảo vệ an toàn lưới điện cao áp bao gồm: 
-                        a) Hành lang bảo vệ an toàn đường dây dẫn điện trên không; 
-                        b) Hành lang bảo vệ an toàn đường cáp điện ngầm; 
-                        c) Hành lang bảo vệ an toàn trạm điện.</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Hành lang an toàn lưới điện cao áp là khoảng không gian giới hạn dọc theo đường dây tải điện hoặc bao quanh trạm điện và được quy định cụ thể theo từng cấp điện áp. Hành lang bảo vệ an toàn lưới điện cao áp bao gồm hành lang bảo vệ an toàn đường dây dẫn điện trên không, hành lang bảo vệ an toàn đường cáp điện ngầm, và hành lang bảo vệ an toàn trạm điện. Chính phủ quy định cụ thể về hành lang bảo vệ an toàn lưới điện cao áp. Trong trường hợp các bên liên quan không thoả thuận, cơ quan nhà nước có thẩm quyền sẽ giải quyết và triển khai thực hiện theo quyết định của mình.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1. Hành lang an toàn lưới điện cao áp là khoảng không gian giới hạn dọc theo đường dây tải điện hoặc bao quanh trạm điện và được quy định cụ thể theo từng cấp điện áp. 
+2. Hành lang bảo vệ an toàn lưới điện cao áp bao gồm: 
+a) Hành lang bảo vệ an toàn đường dây dẫn điện trên không; 
+b) Hành lang bảo vệ an toàn đường cáp điện ngầm; 
+c) Hành lang bảo vệ an toàn trạm điện.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Hành lang an toàn lưới điện cao áp là khoảng không gian giới hạn dọc theo đường dây tải điện hoặc bao quanh trạm điện và được quy định cụ thể theo từng cấp điện áp. Hành lang bảo vệ an toàn lưới điện cao áp bao gồm hành lang bảo vệ an toàn đường dây dẫn điện trên không, hành lang bảo vệ an toàn đường cáp điện ngầm, và hành lang bảo vệ an toàn trạm điện. Chính phủ quy định cụ thể về hành lang bảo vệ an toàn lưới điện cao áp.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Hóa chất nguy hiểm là gì?</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Hóa chất nguy hiểm là hóa chất có một hoặc một số đặc tính nguy hiểm sau đây theo nguyên tắc phân loại của Hệ thống hài hòa toàn cầu về phân loại và ghi nhãn hóa chất: 
+a) Dễ nổ;
+b) Ôxy hóa mạnh;
+c) Ăn mòn mạnh;
+d) Dễ cháy; 
+đ) Độc cấp tính;
+e) Độc mãn tính; 
+g) Gây kích ứng với con người;
+h) Gây ung thư hoặc có nguy cơ gây ung thư;
+i) Gây biến đổi gen;
+k) Độc đối với sinh sản;
+l) Tích luỹ sinh học;
+m) Ô nhiễm hữu cơ khó phân huỷ;
+n) Độc hại đến môi trường.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Câu hỏi của bạn không hợp lệ, hoặc không liên quan đến Pháp Luật. Vui lòng kiểm tra lại và cung cấp thêm thông tin cho tôi</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Các hành vi bị nghiêm cấm trong hoạt động hóa chất</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1. Sản xuất, kinh doanh, vận chuyển, cất giữ, sử dụng, gửi, cho, tặng hóa
-                        chất nguy hiểm trái quy định của Luật này và các quy định khác của pháp luật
-                        có liên quan. 
-                        2. Không công bố thông tin cần thiết, cung cấp thông tin không đầy đủ,
-                        thông tin sai lệch, che giấu thông tin về đặc tính nguy hiểm của hóa chất, sản
-                        phẩm chứa hóa chất nguy hiểm.
-                        3. Sử dụng hóa chất không thuộc danh mục được phép sử dụng, hóa chất
-                        không bảo đảm tiêu chuẩn, chất lượng, vượt quá hàm lượng cho phép để sản
-                        xuất và bảo quản thực phẩm, thuốc chữa bệnh, thức ăn gia súc, thuốc thú y,
-                        thuốc bảo vệ thực vật, phân bón, sản phẩm hóa chất tiêu dùng.
-                        4. Sử dụng hóa chất độc để săn bắt động vật, thực hiện các hành vi xâm hại
-                        đến sức khoẻ con người, tài sản và môi trường. </t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. Sản xuất, kinh doanh, vận chuyển, cất giữ, sử dụng, gửi, cho, tặng hóa chất nguy hiểm trái quy định của Luật này và các quy định khác của pháp luật có liên quan. 
+2. Không công bố thông tin cần thiết, cung cấp thông tin không đầy đủ, thông tin sai lệch, che giấu thông tin về đặc tính nguy hiểm của hóa chất, sản phẩm chứa hóa chất nguy hiểm.
+3. Sử dụng hóa chất không thuộc danh mục được phép sử dụng, hóa chất không bảo đảm tiêu chuẩn, chất lượng, vượt quá hàm lượng cho phép để sản  xuất và bảo quản thực phẩm, thuốc chữa bệnh, thức ăn gia súc, thuốc thú y, thuốc bảo vệ thực vật, phân bón, sản phẩm hóa chất tiêu dùng.
+ 4. Sử dụng hóa chất độc để săn bắt động vật, thực hiện các hành vi xâm hại đến sức khoẻ con người, tài sản và môi trường. </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>Các hành vi bị nghiêm cấm trong hoạt động hóa chất bao gồm:
 1. Sản xuất, kinh doanh, vận chuyển, cất giữ, sử dụng, gửi, cho, tặng hóa chất nguy hiểm trái quy định của Luật và các quy định khác của pháp luật có liên quan.
 2. Lợi dụng chức vụ, quyền hạn để gây khó khăn, phiền hà cho tổ chức, cá nhân hoạt động hóa chất; bao che cho người vi phạm pháp luật về hoạt động hóa chất hoặc thiếu trách nhiệm để xảy ra ô nhiễm, sự cố hóa chất.
-3. Các hành vi vi phạm quy định của Luật và các quy định khác của pháp luật có liên quan về hoạt động hóa chất sẽ bị xử lý hành chính hoặc truy cứu trách nhiệm hình sự, tùy theo đối tượng, tính chất, mức độ vi phạm.
-4. Tổ chức, cá nhân nơi có cơ sở hoạt động hóa chất có quyền yêu cầu thực hiện các biện pháp bảo vệ môi trường, bảo vệ sức khỏe cộng đồng và được bồi thường thiệt hại do hoạt động hóa chất gây ra theo quy định của pháp luật.
-5. Tổ chức, cá nhân hoạt động hóa chất có nghĩa vụ báo cáo kịp thời khi phát hiện hành vi vi phạm quy định của pháp luật về an toàn hóa chất và tạo điều kiện thuận lợi cho cơ quan hữu quan khắc phục sự cố hóa chất.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Hàng hóa có khuyết tật là hàng hóa gì?</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Hàng hóa có khuyết tật là hàng hóa không bảo đảm an toàn cho người
-                        tiêu dùng, có khả năng gây thiệt hại cho tính mạng, sức khỏe, tài sản của người
-                        tiêu dùng, kể cả trường hợp hàng hóa đó được sản xuất theo đúng tiêu chuẩn
-                        QUỐC HỘI CỘNG HÒA XÃ HỘI CHỦ NGHĨA VIỆT NAM
-                        Độc lập – Tự do – Hạnh phúc
-                        Luật số: 59/2010/QH12 Hà Nội, ngày 17 tháng 11 năm 2010
-                        hoặc quy chuẩn kỹ thuật hiện hành nhưng chưa phát hiện được khuyết tật tại
-                        thời điểm hàng hóa được cung cấp cho người tiêu dùng, bao gồm:
-                        a) Hàng hóa sản xuất hàng loạt có khuyết tật phát sinh từ thiết kế kỹ thuật;
-                        b) Hàng hóa đơn lẻ có khuyết tật phát sinh từ quá trình sản xuất, chế biến,
-                        vận chuyển, lưu giữ;
-                        c) Hàng hóa tiềm ẩn nguy cơ gây mất an toàn trong quá trình sử dụng
-                        nhưng không có hướng dẫn, cảnh báo đầy đủ cho người tiêu dùng.</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Hàng hóa có khuyết tật là hàng hóa không bảo đảm an toàn cho người tiêu dùng, có khả năng gây thiệt hại cho tính mạng, sức khỏe, tài sản của người tiêu dùng, kể cả trường hợp hàng hóa đó được sản xuất theo đúng tiêu chuẩn. Khi phát hiện hàng hóa có khuyết tật, tổ chức, cá nhân sản xuất, nhập khẩu hàng hóa có trách nhiệm tiến hành mọi biện pháp cần thiết để ngừng việc cung cấp hàng hóa có khuyết tật trên thị trường và thông báo công khai về việc thu hồi hàng hóa đó.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Nguyên tắc bảo vệ quyền lợi người tiêu dùng</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Nguyên tắc bảo vệ quyền lợi người tiêu dùng
-                        1. Bảo vệ quyền lợi người tiêu dùng là trách nhiệm chung của Nhà nước và
-                        toàn xã hội.
-                        2. Quyền lợi của người tiêu dùng được tôn trọng và bảo vệ theo quy định
-                        của pháp luật.
-                        3. Bảo vệ quyền lợi của người tiêu dùng phải được thực hiện kịp thời, công
-                        bằng, minh bạch, đúng pháp luật.
-                        4. Hoạt động bảo vệ quyền lợi người tiêu dùng không được xâm phạm đến
-                        lợi ích của Nhà nước, quyền, lợi ích hợp pháp của tổ chức, cá nhân kinh doanh
-                        hàng hóa, dịch vụ và tổ chức, cá nhân khác.</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Nguyên tắc bảo vệ quyền lợi người tiêu dùng được đề ra trong pháp luật bao gồm việc tôn trọng và bảo vệ quyền lợi của họ theo quy định của pháp luật. Bảo vệ quyền lợi của người tiêu dùng phải được thực hiện kịp thời, công bằng, minh bạch và đúng pháp luật. Hoạt động bảo vệ quyền lợi người tiêu dùng không được xâm phạm đến lợi ích của Nhà nước, quyền, lợi ích hợp pháp của tổ chức, cá nhân kinh doanh hàng hóa, dịch vụ và tổ chức, cá nhân khác.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Nguyên tắc thực hiện hòa giải</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Nguyên tắc thực hiện hòa giải
-                        1. Bảo đảm khách quan, trung thực, thiện chí, không được ép buộc, lừa dối.
-                        2. Tổ chức, cá nhân tiến hành hòa giải, các bên tham gia hòa giải phải bảo
-                        đảm bí mật thông tin liên quan đến việc hòa giải, trừ trường hợp các bên có thỏa
-                        thuận khác hoặc pháp luật có quy định khác.</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Nguyên tắc thực hiện hòa giải là bảo đảm khách quan, trung thực, thiện chí, không được ép buộc, lừa dối. Điều này đảm bảo tính công bằng và minh bạch trong quá trình giải quyết tranh chấp giữa người tiêu dùng và tổ chức, cá nhân kinh doanh hàng hóa, dịch vụ.</t>
+Nếu bạn cần thêm thông tin, vui lòng tham khảo tài liệu tham khảo đã được cung cấp.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Vụ án dân sự về bảo vệ quyền lợi người tiêu dùng là gì?</t>
+          <t>Yêu cầu về chuyên môn trong sản xuất, kinh doanh hóa chất</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Vụ án dân sự về bảo vệ quyền lợi người tiêu dùng là vụ án mà bên khởi
-                        kiện là người tiêu dùng hoặc tổ chức xã hội tham gia bảo vệ quyền lợi người tiêu
-                        dùng theo quy định của Luật này.</t>
+          <t>1. Tổ chức, cá nhân sản xuất, kinh doanh hóa chất phải có người chuyên trách về an toàn hóa chất có trình độ chuyên môn phù hợp với quy mô và loại hình sản xuất, kinh doanh hóa chất, nắm vững công nghệ, phương án và các biện pháp bảo đảm an toàn hóa chất. 
+2. Người lao động trực tiếp sản xuất, kinh doanh hóa chất phải có trình độ chuyên môn phù hợp với nhiệm vụ được phân công. 
+3. Người trực tiếp điều hành sản xuất của cơ sở sản xuất hóa chất nguy hiểm phải có trình độ đại học trở lên về chuyên ngành hóa chất.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Vụ án dân sự về bảo vệ quyền lợi người tiêu dùng là vụ án mà bên khởi kiện là người tiêu dùng hoặc tổ chức xã hội tham gia bảo vệ quyền lợi người tiêu dùng theo quy định của Luật. Vụ án này được giải quyết theo thủ tục đơn giản khi có đủ các điều kiện như cá nhân là người tiêu dùng khởi kiện, vụ án đơn giản và chứng cứ rõ ràng, giá trị giao dịch dưới 100 triệu đồng. Điều 42 của Luật quy định về nghĩa vụ chứng minh trong vụ án dân sự về bảo vệ quyền lợi người tiêu dùng.</t>
+          <t>Câu hỏi của bạn không hợp lệ, hoặc không liên quan đến Pháp Luật. Vui lòng kiểm tra lại và cung cấp thêm thông tin cho tôi</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Nghĩa vụ chứng minh trong vụ án dân sự về bảo vệ quyền lợi người tiêu dùng</t>
+          <t>Làm cách nào để giải quyết tranh chấp trong hoạt động hóa chất?</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1. Người tiêu dùng có nghĩa vụ cung cấp chứng cứ và chứng minh trong vụ
-                        án dân sự để bảo vệ quyền, lợi ích hợp pháp của mình theo quy định của pháp
-                        luật về tố tụng dân sự, trừ việc chứng minh lỗi của tổ chức, cá nhân kinh doanh
-                        hàng hóa, dịch vụ.
-                        2. Tổ chức, cá nhân kinh doanh hàng hóa, dịch vụ có nghĩa vụ chứng minh
-                        mình không có lỗi gây ra thiệt hại.
-                        3. Tòa án quyết định bên có lỗi trong vụ án dân sự về bảo vệ quyền lợi
-                        người tiêu dùng.</t>
+          <t>Giải quyết tranh chấp trong hoạt động hóa chất được thực hiện bằng những hình thức sau đây:
+1. Thương lượng giữa các bên;
+2. Hòa giải giữa các bên do một tổ chức hoặc cá nhân được các bên thỏa thuận làm trung gian hòa giải;
+3. Giải quyết tại trọng tài thương mại hoặc Tòa án.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Nghĩa vụ chứng minh trong vụ án dân sự về bảo vệ quyền lợi người tiêu dùng là người tiêu dùng có nghĩa vụ cung cấp chứng cứ và chứng minh trong vụ án dân sự để bảo vệ quyền, lợi ích hợp pháp của mình theo quy định của pháp luật về tố tụng dân sự, trừ việc chứng minh lỗi của tổ chức, cá nhân kinh doanh hàng hóa, dịch vụ.</t>
+          <t>Câu hỏi của bạn không hợp lệ, hoặc không liên quan đến Pháp Luật. Vui lòng kiểm tra lại và cung cấp thêm thông tin cho tôi</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hợp đồng theo mẫu là gì?</t>
+          <t>Hàng hóa có khuyết tật là hàng hóa gì?</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Hợp đồng theo mẫu là hợp đồng do tổ chức, cá nhân kinh doanh hàng
-                        hóa, dịch vụ soạn thảo để giao dịch với người tiêu dùng.</t>
+          <t>Hàng hóa có khuyết tật là hàng hóa không bảo đảm an toàn cho người tiêu dùng, có khả năng gây thiệt hại cho tính mạng, sức khỏe, tài sản của người tiêu dùng.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Hợp đồng theo mẫu là hợp đồng do tổ chức, cá nhân kinh doanh hàng hóa, dịch vụ soạn thảo để giao dịch với người tiêu dùng. Điều kiện giao dịch chung là những quy định, quy tắc bán hàng, cung ứng dịch vụ do tổ chức, cá nhân kinh doanh hàng hóa, dịch vụ công bố và áp dụng đối với người tiêu dùng. Việc tuyên bố và xử lý điều khoản của hợp đồng giao kết với người tiêu dùng, điều kiện giao dịch chung không có hiệu lực được thực hiện theo quy định của pháp luật về dân sự.</t>
+          <t>Hàng hóa có khuyết tật là hàng hóa không bảo đảm an toàn cho người tiêu dùng, có khả năng gây thiệt hại cho tính mạng, sức khỏe, tài sản của người tiêu dùng, kể cả trường hợp hàng hóa đó được sản xuất theo đúng tiêu chuẩn. Khi phát hiện hàng hóa có khuyết tật, tổ chức, cá nhân sản xuất, nhập khẩu hàng hóa có trách nhiệm kịp thời tiến hành mọi biện pháp cần thiết để ngừng việc cung cấp hàng hóa có khuyết tật trên thị trường và thông báo công khai về hàng hóa có khuyết tật để thu hồi hàng hóa đó.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Chính sách thương mại đối với nông thôn</t>
+          <t>Nguyên tắc bảo vệ quyền lợi người tiêu dùng</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Nhà nước có chính sách phát triển thương mại đối với thị trường
-                        nông thôn, tạo điều kiện mở rộng và phát triển chợ nông thôn. Doanh
-                        nghiệp Nhà nước đóng vai trò chủ lực cùng với hợp tác xã và các thành
-                        phần kinh tế khác thực hiện việc bán vật tư nông nghiệp, hàng công
-                        nghiệp, mua nông sản nhằm góp phần nâng cao sức mua của nông dân và
-                        tạo tiền đề thúc đẩy việc chuyển dịch cơ cấu kinh tế, phát triển sản xuất
-                        hàng hoá, thực hiện công nghiệp hoá, hiện đại hoá nông thôn.</t>
+          <t>Nguyên tắc bảo vệ quyền lợi người tiêu dùng
+1. Bảo vệ quyền lợi người tiêu dùng là trách nhiệm chung của Nhà nước và toàn xã hội.
+2. Quyền lợi của người tiêu dùng được tôn trọng và bảo vệ theo quy định của pháp luật.
+3. Bảo vệ quyền lợi của người tiêu dùng phải được thực hiện kịp thời, công bằng, minh bạch, đúng pháp luật.
+4. Hoạt động bảo vệ quyền lợi người tiêu dùng không được xâm phạm đến lợi ích của Nhà nước, quyền, lợi ích hợp pháp của tổ chức, cá nhân kinh doanh hàng hóa, dịch vụ và tổ chức, cá nhân khác.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Chính sách thương mại đối với nông thôn được Nhà nước quy định rõ trong pháp luật. Theo đó, Nhà nước có chính sách phát triển thương mại đối với thị trường nông thôn, tạo điều kiện mở rộng và phát triển chợ nông thôn. Doanh nghiệp Nhà nước, hợp tác xã và các thành phần kinh tế khác đóng vai trò quan trọng trong việc bán vật tư nông nghiệp, hàng công nghiệp, mua nông sản nhằm nâng cao sức mua của nông dân và thúc đẩy phát triển kinh tế nông thôn. Điều này góp phần vào việc chuyển dịch cơ cấu kinh tế, phát triển sản xuất hàng hoá, thực hiện công nghiệp hoá, hiện đại hoá nông thôn.</t>
+          <t>Nguyên tắc bảo vệ quyền lợi người tiêu dùng là trách nhiệm chung của Nhà nước và toàn xã hội. Quyền lợi của người tiêu dùng được tôn trọng và bảo vệ theo quy định của pháp luật. Bảo vệ quyền lợi của người tiêu dùng phải được thực hiện kịp thời, công bằng, minh bạch, đúng pháp luật.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Người môi giới thương mại là gì?</t>
+          <t>Nguyên tắc thực hiện hòa giải</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Người môi giới thương mại là thương nhân làm trung gian cho các
-                        bên mua bán hàng hoá, cung ứng dịch vụ thương mại trong việc đàm
-                        phán, ký kết hợp đồng mua bán hàng hoá, cung ứng dịch vụ thương mại
-                        và được hưởng thù lao theo hợp đồng môi giới.</t>
+          <t>Nguyên tắc thực hiện hòa giải
+1. Bảo đảm khách quan, trung thực, thiện chí, không được ép buộc, lừa dối.
+2. Tổ chức, cá nhân tiến hành hòa giải, các bên tham gia hòa giải phải bảo đảm bí mật thông tin liên quan đến việc hòa giải, trừ trường hợp các bên có thỏa thuận khác hoặc pháp luật có quy định khác.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Người môi giới thương mại là thương nhân làm trung gian cho các bên mua bán hàng hoá, cung ứng dịch vụ thương mại trong việc đàm phán, ký kết hợp đồng mua bán hàng hoá, cung ứng dịch vụ thương mại và được hưởng thù lao theo hợp đồng môi giới.</t>
+          <t>Nguyên tắc thực hiện hòa giải là bảo đảm khách quan, trung thực, thiện chí, không được ép buộc, lừa dối. Tổ chức và cá nhân tiến hành hòa giải cũng phải bảo đảm bí mật thông tin liên quan đến việc hòa giải, trừ trường hợp có thỏa thuận khác hoặc theo quy định của pháp luật.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>Vụ án dân sự về bảo vệ quyền lợi người tiêu dùng là gì?</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Vụ án dân sự về bảo vệ quyền lợi người tiêu dùng là vụ án mà bên khởi kiện là người tiêu dùng hoặc tổ chức xã hội tham gia bảo vệ quyền lợi người tiêu dùng theo quy định của Luật này.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Vụ án dân sự về bảo vệ quyền lợi người tiêu dùng là vụ án mà bên khởi kiện là người tiêu dùng hoặc tổ chức xã hội tham gia bảo vệ quyền lợi người tiêu dùng theo quy định của Luật. Vụ án này được giải quyết theo thủ tục đơn giản khi có đủ các điều kiện như cá nhân là người tiêu dùng khởi kiện, vụ án đơn giản và chứng cứ rõ ràng, cũng như giá trị giao dịch dưới 100 triệu đồng. Điều 42 của Luật quy định về nghĩa vụ chứng minh trong vụ án dân sự về bảo vệ quyền lợi người tiêu dùng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Nghĩa vụ chứng minh trong vụ án dân sự về bảo vệ quyền lợi người tiêu dùng</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1. Người tiêu dùng có nghĩa vụ cung cấp chứng cứ và chứng minh trong vụ án dân sự để bảo vệ quyền, lợi ích hợp pháp của mình theo quy định của pháp luật về tố tụng dân sự, trừ việc chứng minh lỗi của tổ chức, cá nhân kinh doanh hàng hóa, dịch vụ.
+2. Tổ chức, cá nhân kinh doanh hàng hóa, dịch vụ có nghĩa vụ chứng minh mình không có lỗi gây ra thiệt hại.
+3. Tòa án quyết định bên có lỗi trong vụ án dân sự về bảo vệ quyền lợi người tiêu dùng.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Nghĩa vụ chứng minh trong vụ án dân sự về bảo vệ quyền lợi người tiêu dùng là người tiêu dùng có nghĩa vụ cung cấp chứng cứ và chứng minh trong vụ án dân sự để bảo vệ quyền, lợi ích hợp pháp của mình theo quy định của pháp luật về tố tụng dân sự, trừ việc chứng minh lỗi của tổ chức, cá nhân kinh doanh hàng hóa, dịch vụ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Hợp đồng theo mẫu là gì?</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Hợp đồng theo mẫu là hợp đồng do tổ chức, cá nhân kinh doanh hàng hóa, dịch vụ soạn thảo để giao dịch với người tiêu dùng.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Hợp đồng theo mẫu là hợp đồng do tổ chức, cá nhân kinh doanh hàng hóa, dịch vụ soạn thảo để giao dịch với người tiêu dùng. Điều kiện giao dịch chung là những quy định, quy tắc bán hàng, cung ứng dịch vụ do tổ chức, cá nhân kinh doanh hàng hóa, dịch vụ công bố và áp dụng đối với người tiêu dùng. Việc tuyên bố và xử lý điều khoản của hợp đồng giao kết với người tiêu dùng, điều kiện giao dịch chung không có hiệu lực được thực hiện theo quy định của pháp luật về dân sự.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chính sách thương mại đối với nông thôn</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Nhà nước có chính sách phát triển thương mại đối với thị trường nông thôn, tạo điều kiện mở rộng và phát triển chợ nông thôn. Doanh nghiệp Nhà nước đóng vai trò chủ lực cùng với hợp tác xã và các thành phần kinh tế khác thực hiện việc bán vật tư nông nghiệp, hàng công nghiệp, mua nông sản nhằm góp phần nâng cao sức mua của nông dân và tạo tiền đề thúc đẩy việc chuyển dịch cơ cấu kinh tế, phát triển sản xuất hàng hoá, thực hiện công nghiệp hoá, hiện đại hoá nông thôn.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Chính sách thương mại đối với nông thôn được Nhà nước quy định rõ trong Điều 13 và Điều 14 của pháp luật. Theo đó, Nhà nước tạo điều kiện mở rộng và phát triển chợ nông thôn, với vai trò chủ lực của doanh nghiệp Nhà nước cùng với hợp tác xã và các thành phần kinh tế khác. Mục tiêu của chính sách này là nâng cao sức mua của nông dân, thúc đẩy việc chuyển dịch cơ cấu kinh tế, phát triển sản xuất hàng hoá, công nghiệp hoá và hiện đại hoá nông thôn. Điều 14 cũng nêu rõ về chính sách thương mại đối với miền núi, hải đảo, vùng sâu, vùng xa, bao gồm chính sách tiêu thụ sản phẩm địa phương, ưu đãi về thuế, tín dụng, trợ giá, trợ cước và đầu tư cơ sở vật chất để mở rộng giao lưu kinh tế ở các vùng này.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Người môi giới thương mại là gì?</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Người môi giới thương mại là thương nhân làm trung gian cho các bên mua bán hàng hoá, cung ứng dịch vụ thương mại trong việc đàm phán, ký kết hợp đồng mua bán hàng hoá, cung ứng dịch vụ thương mại và được hưởng thù lao theo hợp đồng môi giới.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Người môi giới thương mại là thương nhân làm trung gian cho các bên mua bán hàng hoá, cung ứng dịch vụ thương mại trong việc đàm phán, ký kết hợp đồng mua bán hàng hoá, cung ứng dịch vụ thương mại và được hưởng thù lao theo hợp đồng môi giới.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>Các hành vi bị cấm trong hoạt động điện lực và sử dụng điện</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>1. Phá hoại các trang thiết bị điện, thiết bị đo đếm điện và công trình điện 
-                        lực. 
-                        2. Hoạt động điện lực không có giấy phép theo quy định của Luật này. 
-                        3. Đóng, cắt điện trái quy định của pháp luật. 
-                        4. Vi phạm các quy định về an toàn trong phát điện, truyền tải điện, phân 
-                        phối điện và sử dụng điện. 
-                        5. Cản trở việc kiểm tra hoạt động điện lực và sử dụng điện. 
-                        6. Trộm cắp điện. 
-                        7. Sử dụng điện để bẫy, bắt động vật hoặc làm phương tiện bảo vệ, trừ
-                        trường hợp được quy định tại Điều 59 của Luật này. 
-                        8. Vi phạm các quy định về bảo vệ hành lang an toàn lưới điện, khoảng 
-                        cách an toàn của đường dây và trạm điện. 
-                        9. Cung cấp thông tin không trung thực làm tổn hại đến quyền và lợi ích 
-                        hợp pháp của tổ chức, cá nhân hoạt động điện lực và sử dụng điện. 
-                        10. Lợi dụng chức vụ, quyền hạn để gây sách nhiễu, phiền hà, thu lợi bất 
-                        chính trong hoạt động điện lực và sử dụng điện. 
-                        11. Các hành vi khác vi phạm quy định của pháp luật về điện lực.</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Các hành vi bị cấm trong hoạt động điện lực và sử dụng điện bao gồm phá hoại các trang thiết bị điện, thiết bị đo đếm điện và công trình điện lực. Điều này được quy định rõ trong Điều 7 của pháp luật về hoạt động điện lực và sử dụng điện.</t>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1. Phá hoại các trang thiết bị điện, thiết bị đo đếm điện và công trình điện lực. 
+2. Hoạt động điện lực không có giấy phép theo quy định của Luật này. 
+3. Đóng, cắt điện trái quy định của pháp luật. 
+4. Vi phạm các quy định về an toàn trong phát điện, truyền tải điện, phân phối điện và sử dụng điện. 
+5. Cản trở việc kiểm tra hoạt động điện lực và sử dụng điện. 
+6. Trộm cắp điện. 
+7. Sử dụng điện để bẫy, bắt động vật hoặc làm phương tiện bảo vệ, trừ trường hợp được quy định tại Điều 59 của Luật này. 
+8. Vi phạm các quy định về bảo vệ hành lang an toàn lưới điện, khoảng cách an toàn của đường dây và trạm điện. 
+9. Cung cấp thông tin không trung thực làm tổn hại đến quyền và lợi ích hợp pháp của tổ chức, cá nhân hoạt động điện lực và sử dụng điện. 
+10. Lợi dụng chức vụ, quyền hạn để gây sách nhiễu, phiền hà, thu lợi bất chính trong hoạt động điện lực và sử dụng điện. 
+11. Các hành vi khác vi phạm quy định của pháp luật về điện lực.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Các hành vi bị cấm trong hoạt động điện lực và sử dụng điện bao gồm vi phạm các quy định về an toàn trong phát điện, truyền tải điện, phân phối điện và sử dụng điện, cản trở việc kiểm tra hoạt động điện lực và sử dụng điện.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Một tổ chức nước ngoài đang đầu tư vào một dự án dầu khí ở Việt Nam bị tranh chấp về quyền sở hữu vốn đầu tư của họ, họ nên làm gì để bảo vệ quyền lợi của mình theo pháp luật Việt Nam?</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Nhà nước Việt Nam khuyến khích các tổ chức, cá nhân Việt Nam và nước ngoài đầu tư vốn, công nghệ để tiến hành các hoạt động dầu khí trên cơ sở tôn trọng độc lập, chủ quyền, toàn vẹn lãnh thổ, an ninh quốc gia của Việt Nam và tuân thủ pháp luật Việt Nam. Nhà nước Việt Nam bảo hộ quyền sở hữu đối với vốn đầu tư, tài sản và các quyền lợi hợp pháp khác của các tổ chức, cá nhân Việt Nam và nước ngoài tiến hành các hoạt động dầu khí ở Việt Nam.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Để bảo vệ quyền lợi của mình trong trường hợp tranh chấp về quyền sở hữu vốn đầu tư vào dự án dầu khí ở Việt Nam, tổ chức nước ngoài cần tuân thủ pháp luật Việt Nam. Theo Luật Dầu khí của Việt Nam, Nhà nước Việt Nam bảo hộ quyền sở hữu đối với vốn đầu tư, tài sản và các quyền lợi hợp pháp khác của các tổ chức, cá nhân Việt Nam và nước ngoài tham gia hoạt động dầu khí tại Việt Nam. Do đó, tổ chức nước ngoài cần tuân thủ đúng quy định của Luật Dầu khí và hợp tác với cơ quan chức năng để giải quyết tranh chấp theo đúng quy trình pháp lý.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Một công ty nước ngoài muốn khai thác dầu khí trong lòng đất ở Việt Nam, họ cần phải tuân thủ những quy định và yêu cầu nào của pháp luật Việt Nam?</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Trên các công trình, phương tiện, thiết bị phục vụ cho các hoạt động dầu khí trong vùng đặc quyền kinh tế và thềm lục địa của nước Cộng hoà xã hội chủ nghĩa Việt Nam; 2. Trên các công trình, phương tiện, thiết bị của tổ chức, cá nhân Việt Nam phục vụ cho các hoạt động dầu khí trên cơ sở hợp tác với nước ngoài tại các vùng không thuộc quyền tài phán của nước Cộng hoà xã hội chủ nghĩa Việt Nam.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Theo Luật Dầu khí của Việt Nam, công ty nước ngoài muốn khai thác dầu khí trong lòng đất ở Việt Nam cần tuân thủ các quy định sau:
+1. Trên các công trình, phương tiện, thiết bị phục vụ cho các hoạt động dầu khí trong vùng đặc quyền kinh tế và thềm lục địa của Việt Nam.
+2. Trên các công trình, phương tiện, thiết bị của tổ chức, cá nhân Việt Nam phục vụ cho các hoạt động dầu khí trên cơ sở hợp tác với nước ngoài tại các vùng không thuộc quyền tài phán của Việt Nam.
+3. Chính phủ Việt Nam bảo đảm các quyền lợi về kinh tế của các bên đã ký kết các Hiệp định, hợp đồng dầu khí và đã được Chính phủ Việt Nam chuẩn y trước ngày Luật này có hiệu lực.
+4. Chính phủ Việt Nam ký kết với Chính phủ nước ngoài Hiệp định hợp tác tiến hành các hoạt động dầu khí tại Việt Nam.
+5. Những quy định trước đây trái với Luật này đều bãi bỏ.
+6. Chính phủ Việt Nam quy định chi tiết thi hành Luật này.
+Vì vậy, công ty nước ngoài cần tuân thủ các quy định và yêu cầu được nêu trong Luật Dầu khí của Việt Nam khi muốn khai thác dầu khí trong lòng đất ở Việt Nam.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Một cá nhân tham gia vào hoạt động tìm kiếm thăm dò khoáng sản trong khu vực hợp đồng dầu khí, nhưng họ gặp phải tranh chấp với một công ty khác về quyền sở hữu, họ nên thực hiện những biện pháp gì để giải quyết tình huống này?</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Chính phủ Việt Nam cho phép tổ chức, cá nhân tiến hành các hoạt động nghiên cứu khoa học, tìm kiếm thăm dò và khai thác khoáng sản, tài nguyên thiên nhiên khác ngoài dầu khí trong diện tích hợp đồng dầu khí theo quy định của pháp luật Việt Nam. Các hoạt động này không được gây cản trở và làm thiệt hại cho các hoạt động dầu khí.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Theo quy định của pháp luật Việt Nam, cá nhân tham gia vào hoạt động tìm kiếm thăm dò khoáng sản trong khu vực hợp đồng dầu khí cần tuân thủ các quy định về quyền sở hữu. Họ nên thực hiện các biện pháp pháp lý để bảo vệ quyền sở hữu của mình và giải quyết tranh chấp với công ty khác một cách hợp pháp và minh bạch.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Một tổ chức nước ngoài muốn tham gia ký kết hợp đồng dầu khí với Chính phủ Việt Nam, họ cần phải đáp ứng những yêu cầu gì về tư cách pháp lý?</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Hợp đồng dầu khí phải tuân thủ Hợp đồng mẫu do Chính phủ Việt Nam ban hành, trong đó có những nội dung chính sau đây: 1. Tư cách pháp lý của tổ chức, cá nhân tham gia ký kết hợp đồng; 2. Đối tượng của hợp đồng; 3. Giới hạn diện tích và tiến độ hoàn trả diện tích hợp đồng; 4. Thời hạn hợp đồng; 5. Điều kiện chấm dứt hợp đồng trước thời hạn hoặc kéo dài thời hạn hợp đồng; 6. Cam kết về tiến độ công việc và đầu tư tài chính; 7. Quyền và nghĩa vụ của các bên ký kết hợp đồng; 8. Việc thu hồi vốn đầu tư, xác định lợi nhuận và phân chia lợi nhuận; quyền của nước chủ nhà đối với tài sản cố định sau khi hoàn vốn và khi chấm dứt hợp đồng; 9. Điều kiện chuyển nhượng quyền và nghĩa vụ của các bên ký kết hợp đồng; quyền của Tổng công ty dầu khí Việt Nam được tham gia vốn đầu tư; 10. Cam kết đào tạo và ưu tiên sử dụng lao động, dịch vụ Việt Nam; 11. Trách nhiệm bảo vệ môi trường và bảo đảm an toàn trong khi tiến hành hoạt động dầu khí; 12. Thể thức giải quyết tranh chấp phát sinh từ hợp đồng</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Theo quy định của pháp luật Việt Nam, tổ chức nước ngoài muốn tham gia ký kết hợp đồng dầu khí với Chính phủ Việt Nam cần phải đáp ứng những yêu cầu sau:
+1. Trách nhiệm bảo vệ môi trường và bảo đảm an toàn trong khi tiến hành hoạt động dầu khí.
+2. Thể thức giải quyết tranh chấp phát sinh từ hợp đồng phải được tuân thủ.
+3. Tổ chức, cá nhân muốn ký kết hợp đồng dầu khí phải thông qua đấu thầu hoặc các hình thức khác do Chính phủ Việt Nam quy định.
+4. Tổ chức, cá nhân này phải giải trình rõ khả năng tài chính, trình độ kỹ thuật, kinh nghiệm chuyên môn trong lĩnh vực hoạt động dầu khí.
+5. Thời hạn hợp đồng dầu khí không quá hai mươi lăm năm (25 năm), trong đó giai đoạn tìm kiếm thăm dò không quá năm năm (5 năm).
+Những yêu cầu này được quy định cụ thể trong Luật dầu khí và các văn bản hướng dẫn liên quan của Chính phủ Việt Nam.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Các biện pháp nào có thể được Nhà thầu áp dụng để đề xuất kéo dài thời hạn của hợp đồng dầu khí?</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Thời hạn hợp đồng dầu khí không quá hai mươi lăm năm (25 năm), trong đó giai đoạn tìm kiếm thăm dò không quá năm năm (5 năm). Thời hạn hợp đồng dầu khí đối với khu vực nước sâu, xa bờ và thời hạn hợp đồng tìm kiếm thăm dò, khai thác khí thiên nhiên không quá ba mươi năm (30 năm), trong đó giai đoạn tìm kiếm thăm dò không quá bảy năm (7 năm). Thời hạn hợp đồng dầu khí có thể được kéo dài thêm, nhưng không quá năm năm (5 năm) và thời hạn của giai đoạn tìm kiếm thăm dò có thể được kéo dài thêm, nhưng không quá một năm (1 năm), theo đề nghị của Nhà thầu và phải được Chính phủ Việt Nam quyết định. Hợp đồng dầu khí có thể kết thúc trước thời hạn với điều kiện Nhà thầu phải hoàn thành các nghĩa vụ đã cam kết và được các bên ký kết hợp đồng thoả thuận.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Để đề xuất kéo dài thời hạn của hợp đồng dầu khí, Nhà thầu có thể áp dụng các biện pháp sau:
+1. Giải trình rõ khả năng tài chính, trình độ kỹ thuật, kinh nghiệm chuyên môn trong lĩnh vực hoạt động dầu khí.
+2. Đề nghị kéo dài thời hạn hợp đồng dầu khí không quá năm năm (5 năm) và thời hạn của giai đoạn tìm kiếm thăm dò không quá một năm (1 năm), theo quy định của Chính phủ Việt Nam.
+3. Hoàn thành các nghĩa vụ đã cam kết và được các bên ký kết hợp đồng thoả thuận để đảm bảo hợp đồng không kết thúc trước thời hạn.
+4. Nếu cần, Nhà thầu có thể đề xuất cho Chính phủ Việt Nam cho phép diện tích tìm kiếm thăm dò đối với một hợp đồng dầu khí trên hai lô (2 lô), nhưng không quá bốn lô (4 lô), trong trường hợp đặc biệt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Các nghĩa vụ của nhà thầu theo quy định của luật dầu khí?</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nhà thầu có các nghĩa vụ sau đây: 1. Tuân thủ pháp luật Việt Nam; 2. Thực hiện các cam kết ghi trong hợp đồng dầu khí; 3. Nộp các loại thuế, lệ phí theo quy định của pháp luật Việt Nam; 4. Chuyển giao công nghệ; đào tạo, sử dụng cán bộ, công nhân Việt Nam và bảo đảm quyền lợi của người lao động; 5. Thực hiện các biện pháp bảo vệ môi trường; 6. Báo cáo hoạt động dầu khí với cơ quan quản lý Nhà nước có thẩm quyền và Tổng công ty dầu khí Việt Nam; 7. Cung cấp các tài liệu cho đoàn thanh tra; 8. Thu dọn các công trình, thiết bị, phương tiện sau khi kết thúc hoạt động dầu khí theo yêu cầu của cơ quan quản lý Nhà nước có thẩm quyền; 9. Bán tại thị trường Việt Nam một phần dầu khí thuộc quyền sở hữu của mình khi Chính phủ Việt Nam yêu cầu.</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Theo quy định của Luật dầu khí, các nghĩa vụ của nhà thầu bao gồm việc tham gia vốn vào hợp đồng dầu khí theo tỷ lệ, thời gian và việc hoàn lại chi phí được quy định trong hợp đồng. Nhà thầu cũng được quyền ký kết hợp đồng về dịch vụ dầu khí, nhưng phải ưu tiên ký kết những hợp đồng đó với tổ chức, cá nhân Việt Nam. Các tranh chấp phát sinh từ hợp đồng dầu khí phải được giải quyết thông qua thương lượng và hoà giải.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Một nhà thầu phụ là tổ chức Việt Nam tiến hành hoạt động tại Việt Nam, nhưng không nộp thuế lợi tức theo quy định của Luật thuế lợi tức, họ sẽ phải chịu những hậu quả gì theo pháp luật?</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Nhà thầu phụ là tổ chức, cá nhân Việt Nam tiến hành các hoạt động tại Việt Nam phải nộp thuế lợi tức theo quy định của Luật thuế lợi tức. Nhà thầu phụ là tổ chức, cá nhân nước ngoài có đăng ký hoạt động tại Việt Nam phải nộp thuế lợi tức theo quy định của Luật đầu tư nước ngoài tại Việt Nam. Nhà thầu phụ là tổ chức, cá nhân nước ngoài không đăng ký hoạt động tại Việt Nam phải nộp thuế theo quy định của pháp luật Việt Nam.</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Theo Luật thuế lợi tức, nhà thầu phụ là tổ chức, cá nhân Việt Nam tiến hành các hoạt động tại Việt Nam phải nộp thuế lợi tức theo quy định của Luật thuế lợi tức. Do đó, nếu một nhà thầu phụ không nộp thuế lợi tức theo quy định, họ sẽ phải chịu hậu quả pháp lý theo quy định của pháp luật Việt Nam.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Thanh tra các hoạt động dầu khí theo quy định là ai?</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Thanh tra các hoạt động dầu khí là thanh tra chuyên ngành nhằm bảo đảm việc chấp hành các quy định của Luật này, các quy chế, quy trình, quy phạm kỹ thuật, bảo vệ tài nguyên dầu khí, bảo vệ môi trường, an toàn kỹ thuật và việc thực hiện các nghĩa vụ đối với Nhà nước Việt Nam của tổ chức, cá nhân tiến hành các hoạt động dầu khí.</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Theo quy định, thanh tra các hoạt động dầu khí được thực hiện bởi cơ quan quản lý Nhà nước về dầu khí. Các đoàn thanh tra có quyền yêu cầu các tổ chức, cá nhân liên quan cung cấp tài liệu và trả lời về những vấn đề cần thiết cho việc thanh tra. Đồng thời, họ cũng có thẩm quyền tiến hành các biện pháp kiểm tra kỹ thuật tại hiện trường, tạm đình chỉ hoặc kiến nghị đình chỉ các hoạt động dầu khí có nguy cơ gây tai nạn hoặc tổn thất nghiêm trọng đối với người hoặc tài sản, tài nguyên dầu khí và ô nhiễm môi trường.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Trong trường hợp phát hiện vi phạm trong quá trình kiểm tra kỹ thuật tại hiện trường, đoàn thanh tra có thẩm quyền áp dụng biện pháp gì để giải quyết tình huống này?</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Khi tiến hành thanh tra các hoạt động dầu khí, đoàn thanh tra có quyền: 1. Yêu cầu các tổ chức, cá nhân có liên quan cung cấp tài liệu và trả lời về những vấn đề cần thiết cho việc thanh tra; 2. Tiến hành các biện pháp kiểm tra kỹ thuật tại hiện trường; 3. Tạm đình chỉ hoặc kiến nghị với cơ quan Nhà nước có thẩm quyền đình chỉ các hoạt động dầu khí có nguy cơ gây tai nạn hoặc tổn thất nghiêm trọng đối với người hoặc tài sản, tài nguyên dầu khí và ô nhiễm môi trường; 4. Xử lý theo thẩm quyền hoặc kiến nghị với cơ quan Nhà nước có thẩm quyền xử lý các vi phạm.</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Theo Điều 252 của pháp luật, đoàn thanh tra thương mại có quyền áp dụng các biện pháp ngăn chặn và xử lý vi phạm theo quy định của pháp luật trong trường hợp phát hiện vi phạm trong quá trình kiểm tra kỹ thuật tại hiện trường.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Giải thích cho tôi thuật ngữ "Hành vi thương mại" là gì?</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Hành vi thương mại là hành vi của thương nhân trong hoạt động thương mại làm phát sinh quyền và nghĩa vụ giữa các thương nhân với nhau hoặc giữa thương nhân với các bên có liên quan</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Hành vi thương mại là hành vi của thương nhân trong hoạt động thương mại làm phát sinh quyền và nghĩa vụ giữa các thương nhân với nhau hoặc giữa thương nhân với các bên có liên quan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Thuật ngữ "Thương nhân" áp dụng cho những đối tượng nào?</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Thương nhân gồm cá nhân, pháp nhân, tổ hợp tác, hộ gia đình có đăng ký kinh doanh hoạt động thương mại một cách độc lập, thường xuyên;</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>The term "Thương nhân" is applied to individuals or entities engaged in commercial activities, such as businesses, companies, or entrepreneurs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Sản nghiệp thương mại là gì?</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Sản nghiệp thương mại là toàn bộ tài sản thuộc quyền sở hữu hoặc quyền sử dụng hợp pháp của thương nhân, phục vụ cho hoạt động thương mại như trụ sở, cửa hàng, kho tàng, trang thiết bị, hàng hoá, tên thương mại, biển hiệu, nhãn hiệu hàng hoá, mạng lưới tiêu thụ hàng hoá và cung ứng dịch vụ.</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Sản nghiệp thương mại là toàn bộ tài sản thuộc quyền sở hữu hoặc quyền sử dụng hợp pháp của thương nhân, phục vụ cho hoạt động thương mại như trụ sở, cửa hàng, kho tàng, trang thiết bị, hàng hoá, tên thương mại, biển hiệu, nhãn hiệu hàng hoá, mạng lưới tiêu thụ hàng hoá và cung ứng dịch vụ. Điều này được quy định trong Luật Thương mại của Việt Nam.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Các hành vi bị ngăn cấm trong cạnh tranh thương mại</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Cạnh tranh trong thương mại 1- Thương nhân được cạnh tranh hợp pháp trong hoạt động thương mại. 2- Nghiêm cấm các hành vi cạnh tranh gây tổn hại đến lợi ích quốc gia và các hành vi sau đây: a) Đầu cơ để lũng đoạn thị trường; b) Bán phá giá để cạnh tranh; c) Dèm pha thương nhân khác; d) Ngăn cản, lôi kéo, mua chuộc, đe dọa nhân viên hoặc khách hàng của thương nhân khác; đ) Xâm phạm quyền về nhãn hiệu hàng hoá, các quyền khác về sở hữu công nghiệp của thương nhân khác; e) Các hành vi cạnh tranh bất hợp pháp khác.</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Các hành vi bị ngăn cấm trong cạnh tranh thương mại bao gồm: đầu cơ để lũng đoạn thị trường, bán phá giá để cạnh tranh, dèm pha thương nhân khác, ngăn cản, lôi kéo, mua chuộc, đe dọa nhân viên hoặc khách hàng của thương nhân khác, xâm phạm quyền về nhãn hiệu hàng hoá và các quyền khác về sở hữu công nghiệp của thương nhân khác, cũng như các hành vi cạnh tranh bất hợp pháp khác. Điều này được quy định rõ trong Luật cạnh tranh và các quy định liên quan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Nội dung của chính sách thương mại đối với nông thôn</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Nhà nước có chính sách phát triển thương mại đối với thị trường nông thôn, tạo điều kiện mở rộng và phát triển chợ nông thôn. Doanh nghiệp Nhà nước đóng vai trò chủ lực cùng với hợp tác xã và các thành phần kinh tế khác thực hiện việc bán vật tư nông nghiệp, hàng công nghiệp, mua nông sản nhằm góp phần nâng cao sức mua của nông dân và tạo tiền đề thúc đẩy việc chuyển dịch cơ cấu kinh tế, phát triển sản xuất hàng hoá, thực hiện công nghiệp hoá, hiện đại hoá nông thôn.</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Chính sách thương mại đối với nông thôn được Nhà nước thiết lập nhằm tạo điều kiện mở rộng và phát triển chợ nông thôn. Doanh nghiệp Nhà nước, hợp tác xã và các thành phần kinh tế khác đóng vai trò quan trọng trong việc bán vật tư nông nghiệp, hàng công nghiệp, mua nông sản nhằm nâng cao sức mua của nông dân và thúc đẩy việc chuyển dịch cơ cấu kinh tế, phát triển sản xuất hàng hoá, công nghiệp hoá, hiện đại hoá nông thôn. Điều này góp phần vào mục tiêu dân giàu, nước mạnh, xã hội công bằng, văn minh theo định hướng xã hội chủ nghĩa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Các chính sách lưu thông hàng hóa và dịch vụ thương mại theo quy định</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Nhà nước khuyến khích, tạo điều kiện mở rộng lưu thông hàng hoá, phát triển dịch vụ thương mại mà pháp luật không hạn chế hoặc không cấm. Trong trường hợp cần thiết Nhà nước có thể sử dụng các biện pháp kinh tế, hành chính để tác động vào thị trường nhằm bảo đảm cân đối cung cầu hoặc thực hiện các chính sách kinh tế - xã hội. Cấm lưu thông hàng hoá, cung ứng dịch vụ gây phương hại đến quốc phòng, an ninh, trật tự an toàn xã hội, truyền thống lịch sử, văn hoá, đạo đức, thuần phong mỹ tục Việt Nam, môi trường sinh thái, sản xuất và sức khoẻ của nhân dân. Cấm mọi hành vi cản trở lưu thông hàng hoá, cung ứng dịch vụ hợp pháp trên thị trường. Chính phủ công bố danh mục hàng hoá cấm lưu thông, dịch vụ thương mại cấm thực hiện, danh mục hàng hoá, dịch vụ hạn chế kinh doanh, kinh doanh có điều kiện.</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Chính sách lưu thông hàng hoá và dịch vụ thương mại theo quy định được điều 15 của pháp luật quy định rằng Nhà nước khuyến khích, tạo điều kiện mở rộng lưu thông hàng hoá, phát triển dịch vụ thương mại mà pháp luật không hạn chế hoặc không cấm. Trong trường hợp cần thiết, Nhà nước có thể sử dụng các biện pháp kinh tế, hành chính để tác động vào thị trường nhằm bảo đảm cân đối cung cầu hoặc thực hiện các chính sách kinh tế - xã hội. Tuy nhiên, cấm lưu thông hàng hoá, cung ứng dịch vụ gây phương hại đến quốc phòng, an ninh, trật tự an toàn xã hội, truyền thống lịch sử, văn hoá, đạo đức, thuần phong mỹ tục Việt Nam, môi trường sinh thái, sản xuất và sức khoẻ của nhân dân. Điều này nhằm đảm bảo rằng việc lưu thông hàng hoá và dịch vụ thương mại không ảnh hưởng đến các lĩnh vực quan trọng và an toàn của đất nước.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Điều kiện để trở thành thương nhân theo quy định của luật thương mại là gì?</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Cá nhân từ đủ 18 tuổi trở lên có năng lực hành vi dân sự đầy đủ, pháp nhân, tổ hợp tác, hộ gia đình có đủ điều kiện để kinh doanh thương mại theo quy định của pháp luật nếu có yêu cầu hoạt động thương mại thì được cơ quan Nhà nước có thẩm quyền cấp giấy chứng nhận đăng ký kinh doanh và trở thành thương nhân.</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Để trở thành thương nhân theo quy định của luật thương mại, cá nhân từ đủ 18 tuổi trở lên cần phải có năng lực hành vi dân sự đầy đủ, pháp nhân, tổ hợp tác, hộ gia đình có đủ điều kiện để kinh doanh thương mại theo quy định của pháp luật. Nếu có yêu cầu hoạt động thương mại, họ cần được cơ quan Nhà nước có thẩm quyền cấp giấy chứng nhận đăng ký kinh doanh và trở thành thương nhân.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Những trường hợp không được công nhận là thương nhân theo quy định của luật thương mại</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Những người sau đây không được công nhận là thương nhân: 1- Người không có năng lực hành vi dân sự đầy đủ, người mất năng lực hành vi dân sự, người bị hạn chế năng lực hành vi dân sự; 2- Người đang bị truy cứu trách nhiệm hình sự, người đang phải chấp hành hình phạt tù; 3- Người đang trong thời gian bị Toà án tước quyền hành nghề vì phạm các tội buôn lậu, đầu cơ, buôn bán hàng cấm, làm hàng giả, buôn bán hàng giả, kinh doanh trái phép, trốn thuế, lừa dối khách hàng và các tội khác theo quy định của pháp luật.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Theo quy định của Luật Thương mại, những trường hợp không được công nhận là thương nhân bao gồm:
+1. Người không có đủ năng lực hành vi dân sự đầy đủ, người mất năng lực hành vi dân sự, người bị hạn chế năng lực hành vi dân sự.
+2. Người đang bị truy cứu trách nhiệm hình sự, người đang phải chấp hành hình phạt tù.
+3. Người đang trong thời gian bị Toà án tước quyền hành nghề vì phạm các tội buôn lậu, đầu cơ, buôn bán hàng cấm, làm hàng giả, buôn bán hàng giả, kinh doanh trái phép, trốn thuế, lừa dối khách hàng và các tội khác theo quy định của pháp luật. 
+Thông tin được cung cấp không đề cập đến các trường hợp khác không được công nhận là thương nhân.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Nội dung đăng ký kinh doanh theo quy định của luật thương mại là gì?</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Nội dung đăng ký kinh doanh gồm: 1- Tên thương nhân, tên người đại diện có thẩm quyền; 2- Tên thương mại, biển hiệu; 3- Địa chỉ giao dịch chính thức; 4- Ngành nghề kinh doanh; 5- Vốn điều lệ hoặc vốn đầu tư ban đầu; 6- Thời hạn hoạt động; 7- Chi nhánh, cửa hàng, Văn phòng đại diện nếu có. Trong quá trình hoạt động, nếu có thay đổi về nội dung đã đăng ký, thương nhân phải đăng ký những thay đổi này.</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Theo quy định của Luật Thương mại, nội dung đăng ký kinh doanh bao gồm:
+1. Tên thương nhân, tên người đại diện có thẩm quyền;
+2. Tên thương mại, biển hiệu;
+3. Địa chỉ giao dịch chính thức;
+4. Ngành nghề kinh doanh;
+5. Vốn điều lệ hoặc vốn đầu tư ban đầu;
+6. Thời hạn hoạt động;
+7. Chi nhánh, cửa hàng, Văn phòng đại diện nếu có.
+Trong quá trình hoạt động, nếu có thay đổi về nội dung đã đăng ký, thương nhân phải đăng ký những thay đổi này.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Quy định về cấp chứng nhận đăng ký kinh doanh</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1- Cơ quan đăng ký kinh doanh có trách nhiệm giải quyết việc đăng ký kinh doanh trong thời hạn mười lăm ngày, kể từ ngày nhận được hồ sơ đầy đủ và hợp lệ. 2- Trong trường hợp không cấp giấy chứng nhận đăng ký kinh doanh, cơ quan đăng ký kinh doanh phải trả lời bằng văn bản nêu rõ lý do cho đương sự trong thời hạn quy định tại khoản 1 Điều này. 3- Trong trường hợp không được cấp giấy chứng nhận đăng ký kinh doanh, đương sự có quyền khiếu nại đến cơ quan Nhà nước có thẩm quyền hoặc khởi kiện tại Toà án theo quy định của pháp luật.</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Theo quy định về cấp chứng nhận đăng ký kinh doanh, cơ quan đăng ký kinh doanh có trách nhiệm giải quyết việc đăng ký kinh doanh trong thời hạn mười lăm ngày, kể từ ngày nhận được hồ sơ đầy đủ và hợp lệ. Trong trường hợp không cấp giấy chứng nhận đăng ký kinh doanh, cơ quan đăng ký kinh doanh phải trả lời bằng văn bản nêu rõ lý do cho đương sự trong thời hạn quy định tại khoản 1 Điều này. Nếu không được cấp giấy chứng nhận đăng ký kinh doanh, đương sự có quyền khiếu nại đến cơ quan Nhà nước có thẩm quyền hoặc khởi kiện tại Toà án theo quy định của pháp luật.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Quy định tạm dừng hoạt động thương mại là gì?</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Trong trường hợp tạm ngừng hoạt động thương mại, thương nhân phải niêm yết thời hạn tạm ngừng tại địa chỉ giao dịch chính thức của thương nhân; nếu tạm ngừng hoạt động thương mại trên ba mươi ngày thì ngoài việc niêm yết, thương nhân phải thông báo với cơ quan Nhà nước có thẩm quyền cấp giấy chứng nhận đăng ký kinh doanh và cơ quan thuế.</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Quy định tạm dừng hoạt động thương mại là khi thương nhân tạm ngừng hoạt động kinh doanh trong một khoảng thời gian nhất định. Theo Điều 34 của pháp luật, khi tạm ngừng hoạt động thương mại, thương nhân phải niêm yết thời hạn tạm ngừng tại địa chỉ giao dịch chính thức của mình và phải thông báo với cơ quan Nhà nước có thẩm quyền cấp giấy chứng nhận đăng ký kinh doanh và cơ quan thuế nếu tạm ngừng hoạt động trên ba mươi ngày.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Chấm dứt hoạt động thương mại khi nào theo quy định của luật thương mại?</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Hoạt động thương mại của thương nhân chấm dứt trong những trường hợp sau đây: a) Thương nhân tự chấm dứt hoạt động thương mại; b) Hết thời hạn hoạt động theo giấy chứng nhận đăng ký kinh doanh; c) Thương nhân bị tuyên bố phá sản hoặc giải thể; d) Theo quyết định của cơ quan Nhà nước có thẩm quyền; đ) Thương nhân là cá nhân chết mà không có người thừa kế hoặc người thừa kế không tiếp tục hoạt động thương mại.</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Theo quy định của Luật Thương mại, hoạt động thương mại của thương nhân có thể chấm dứt trong những trường hợp sau đây: 
+1. Thương nhân tự chấm dứt hoạt động thương mại.
+2. Hết thời hạn hoạt động theo giấy chứng nhận đăng ký kinh doanh.
+3. Thương nhân bị tuyên bố phá sản hoặc giải thể.
+4. Theo quyết định của cơ quan Nhà nước có thẩm quyền.
+5. Thương nhân là cá nhân chết mà không có người thừa kế hoặc người thừa kế không tiếp tục hoạt động thương mại.
+Trong trường hợp chấm dứt hoạt động thương mại, thương nhân phải làm thủ tục xoá đăng ký kinh doanh tại cơ quan đăng ký kinh doanh chậm nhất là mười lăm ngày, kể từ ngày chấm dứt hoạt động.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Hạn chót để hoàn tất thủ tục xóa đăng ký kinh doanh theo quy định là bao lâu?</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Thương nhân phải làm thủ tục xoá đăng ký kinh doanh tại cơ quan đăng ký kinh doanh chậm nhất là mười lăm ngày, kể từ ngày chấm dứt hoạt động.</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Hạn chót để hoàn tất thủ tục xóa đăng ký kinh doanh theo quy định là mười lăm ngày, kể từ ngày chấm dứt hoạt động thương mại.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Chi nhánh thương nhân nước ngoài có những đặc quyền gì theo quy định?</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Chi nhánh của thương nhân nước ngoài tại Việt Nam có những quyền sau đây: 1- Thực hiện các hoạt động thương mại được quy định trong giấy phép; 2- Thuê trụ sở, nhà ở; thuê, mua các phương tiện, vật dụng cần thiết cho hoạt động của Chi nhánh; 3-Tuyển dụng lao động là người Việt Nam, người nước ngoài để làm việc tại Chi nhánh theo quy định của pháp luật Việt Nam; 4- Giao dịch, ký kết hợp đồng thương mại tại Việt Nam phù hợp với nội dung hoạt động được quy định trong giấy phép; 5- Mở tài khoản bằng đồng Việt Nam, bằng ngoại tệ tại ngân hàng được phép hoạt động tại Việt Nam; 6- Nhập khẩu các vật dụng cần thiết cho hoạt động của Chi nhánh và phải nộp thuế theo quy định của pháp luật Việt Nam; 7- Chuyển lợi nhuận ra nước ngoài theo quy định của pháp luật Việt Nam; 8- Có con dấu mang tên Chi nhánh theo quy định của pháp luật Việt Nam.</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Theo quy định, Chi nhánh của thương nhân nước ngoài tại Việt Nam có những đặc quyền sau:
+1. Thực hiện các hoạt động thương mại được quy định trong giấy phép.
+2. Thuê trụ sở, nhà ở; thuê, mua các phương tiện, vật dụng cần thiết cho hoạt động của Chi nhánh.
+3. Tuyển dụng lao động là người Việt Nam, người nước ngoài để làm việc tại Chi nhánh theo quy định của pháp luật Việt Nam.
+4. Giao dịch, ký kết hợp đồng thương mại tại Việt Nam phù hợp với nội dung hoạt động được quy định trong giấy phép.
+5. Mở tài khoản bằng đồng Việt Nam, bằng ngoại tệ tại ngân hàng được phép hoạt động tại Việt Nam.
+6. Nhập khẩu các vật dụng cần thiết cho hoạt động của Chi nhánh và phải nộp thuế theo quy định của pháp luật Việt Nam.
+7. Chuyển lợi nhuận ra nước ngoài theo quy định của pháp luật Việt Nam.
+8. Có con dấu mang tên Chi nhánh theo quy định của pháp luật Việt Nam.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Liệt kê các loại hành vi thương mại theo luật thương mại quy định</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Hành vi thương mại theo quy định của Luật này gồm: 1- Mua bán hàng hoá; 2- Đại diện cho thương nhân; 3- Môi giới thương mại; 4- Uỷ thác mua bán hàng hoá; 5- Đại lý mua bán hàng hoá; 6- Gia công trong thương mại; 7- Đấu giá hàng hoá; 8- Đấu thầu hàng hoá; 9- Dịch vụ giao nhận hàng hoá; 10- Dịch vụ giám định hàng hoá; 11- Khuyến mại; 12- Quảng cáo thương mại; 13- Trưng bày giới thiệu hàng hoá; 14- Hội chợ, triển lãm thương mại.</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Các loại hành vi thương mại theo luật thương mại quy định bao gồm:
+1. Mua bán hàng hoá
+2. Đại diện cho thương nhân
+3. Môi giới thương mại
+4. Uỷ thác mua bán hàng hoá
+5. Đại lý mua bán hàng hoá
+6. Gia công trong thương mại
+7. Đấu giá hàng hoá
+8. Đấu thầu hàng hoá
+9. Dịch vụ giao nhận hàng hoá
+10. Dịch vụ giám định hàng hoá
+11. Khuyến mại
+12. Quảng cáo thương mại
+Đây là các loại hành vi thương mại được quy định trong Luật Thương mại.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Chủ thể của quan hệ mua bán hành hóa là ai?</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Chủ thể của quan hệ mua bán hàng hoá là thương nhân hoặc một bên là thương nhân.</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Chủ thể của quan hệ mua bán hàng hoá là thương nhân hoặc một bên là thương nhân, theo Điều 47 của Luật mua bán hàng hoá.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Hợp đồng mua bán hàng hóa cần bao gồm các thông tin gì theo quy định?</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Hợp đồng mua bán hàng hoá phải có các nội dung chủ yếu sau đây: 1- Tên hàng; 2- Số lượng; 3- Quy cách, chất lượng; 4- Giá cả; 5- Phương thức thanh toán; 6- Địa điểm và thời hạn giao nhận hàng. Ngoài các nội dung chủ yếu quy định tại Điều này, các bên có thể thoả thuận các nội dung khác trong hợp đồng.</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Theo quy định, hợp đồng mua bán hàng hóa cần bao gồm các thông tin sau:
+1. Hàng hoá được phép mua bán theo quy định của pháp luật của cả nước bên mua và nước bên bán.
+2. Hợp đồng mua bán hàng hoá với thương nhân nước ngoài phải có các nội dung chủ yếu quy định tại Điều 50 của Luật.
+3. Hợp đồng mua bán hàng hoá với thương nhân nước ngoài phải được lập thành văn bản.
+Ngoài ra, hợp đồng mua bán hàng hoá với thương nhân nước ngoài cần tuân theo các quy định khác về mua bán hàng hoá của Luật.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Hợp đồng mua bán hàng hóa với thương nhân nước ngoài có hiệu lực khi nào theo quy định?</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Hợp đồng mua bán hàng hoá với thương nhân nước ngoài có hiệu lực khi có đủ các điều kiện sau đây: 1- Chủ thể của hợp đồng là bên mua và bên bán phải có đủ tư cách pháp lý. Chủ thể bên nước ngoài là thương nhân và tư cách pháp lý của họ được xác định căn cứ theo pháp luật của nước mà thương nhân đó mang quốc tịch. Chủ thể bên Việt Nam phải là thương nhân được phép hoạt động thương mại trực tiếp với nước ngoài; 2- Hàng hoá theo hợp đồng là hàng hoá được phép mua bán theo quy định của pháp luật của nước bên mua và nước bên bán; 3- Hợp đồng mua bán hàng hoá với thương nhân nước ngoài phải có các nội dung chủ yếu của hợp đồng mua bán hàng hoá quy định tại Điều 50 của Luật này;  4- Hợp đồng mua bán hàng hoá với thương nhân nước ngoài phải được lập thành văn bản.</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Theo quy định, hợp đồng mua bán hàng hoá với thương nhân nước ngoài có hiệu lực khi có đủ các điều kiện sau đây: 
+1. Chủ thể của hợp đồng là bên mua và bên bán phải có đủ tư cách pháp lý.
+2. Trong trường hợp từ chối thực hiện hợp đồng, bên từ chối phải thông báo trước khi bên kia bắt đầu thực hiện các nghĩa vụ hợp đồng.
+3. Việc kéo dài thời hạn thực hiện nghĩa vụ hợp đồng không áp dụng đối với hợp đồng mua bán có thời hạn giao hàng cố định.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Người đại diện cho thương nhân là gì theo quy định của luật thương mại?</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1- Người đại diện cho thương nhân là một thương nhân nhận uỷ nhiệm của một thương nhân khác để thực hiện các hoạt động thương mại với danh nghĩa và theo sự chỉ dẫn của thương nhân đó và được hưởng thù lao về việc đại diện. 2- Người được đại diện là thương nhân uỷ nhiệm cho thương nhân khác làm người đại diện cho mình. 3- Trong trường hợp thương nhân cử người của mình để làm đại diện cho chính mình thì áp dụng các quy định của Bộ luật dân sự.</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Người đại diện cho thương nhân theo quy định của luật thương mại là một thương nhân nhận uỷ nhiệm của một thương nhân khác để thực hiện các hoạt động thương mại với danh nghĩa và theo sự chỉ dẫn của thương nhân đó và được hưởng thù lao về việc đại diện. Điều này được quy định tại Điều 83 của Luật Thương mại.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Người đại diện cho thương nhân có nghĩa vụ gì theo quy định của luật thương mại?</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Người đại diện cho thương nhân có những nghĩa vụ sau đây: 1- Thực hiện các hoạt động thương mại với danh nghĩa và vì lợi ích của người được đại diện; 2- Thông báo cho người được đại diện về các cơ hội và kết quả thực hiện các hoạt động thương mại đã được uỷ nhiệm; 3- Tuân thủ những chỉ dẫn của người được đại diện, trừ trường hợp chỉ dẫn đó vi phạm các quy định của pháp luật hoặc không phù hợp với hợp đồng đại diện; 4- Không được thực hiện các hoạt động thương mại với danh nghĩa của mình hoặc của người thứ ba trong phạm vi đại diện; 5- Không được tiết lộ hoặc cung cấp cho người khác các bí mật liên quan đến hoạt động thương mại của người được đại diện trong thời gian làm đại diện và trong thời hạn hai năm, kể từ khi hợp đồng đại diện chấm dứt; 6- Bảo quản tài sản, tài liệu được giao để thực hiện hoạt động đại diện; 7- Bồi thường thiệt hại do mình gây ra cho người được đại diện.</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Theo quy định của Luật Thương mại, người đại diện cho thương nhân có nghĩa vụ như sau:
+1. Thực hiện các hoạt động thương mại với danh nghĩa và vì lợi ích của người được đại diện.
+2. Thông báo cho người được đại diện về các cơ hội và kết quả thực hiện các hoạt động thương mại đã được uỷ nhiệm.
+3. Tuân thủ những chỉ dẫn của người được đại diện, trừ trường hợp chỉ dẫn đó vi phạm các quy định của pháp luật hoặc không phù hợp với hợp đồng đại diện.
+4. Không được thực hiện các hoạt động thương mại với danh nghĩa của mình hoặc của người thứ ba trong phạm vi đại diện.
+5. Không được tiết lộ hoặc cung cấp cho người khác các bí mật liên quan đến hoạt động thương mại của người được đại diện trong thời gian làm đại diện và trong thời hạn hai năm, kể từ khi hợp đồng đại diện chấm dứt.
+6. Bảo quản tài sản, tài liệu được giao để thực hiện hoạt động đại diện.
+7. Bồi thường thiệt hại do mình gây ra cho người được đại diện.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Nghĩa vụ của người môi giới thương mại theo quy định là gì?</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Người môi giới thương mại có những nghĩa vụ sau đây: 1- Thực hiện việc môi giới trung thực; 2- Bảo quản các mẫu hàng hoá, tài liệu được giao để thực hiện việc môi giới và phải hoàn trả cho người được môi giới sau khi hoàn thành việc môi giới; 3- Không được tiết lộ, cung cấp thông tin làm phương hại đến lợi ích của người được môi giới; 4- Bồi thường thiệt hại do mình gây ra cho các bên được môi giới; 5- Chịu trách nhiệm về tư cách pháp lý của các bên được môi giới, nhưng không chịu trách nhiệm về khả năng thanh toán của họ.</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Nghĩa vụ của người môi giới thương mại theo quy định là phải thực hiện việc môi giới trung thực.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Hình thức đại lý hoa hồng theo quy định là gì?</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Đại lý hoa hồng là hình thức đại lý mà bên đại lý thực hiện việc mua, bán hàng theo giá mua, giá bán do bên giao đại lý ấn định để được hưởng hoa hồng. Mức hoa hồng được tính theo tỷ lệ phần trăm do các bên thoả thuận trên giá mua, giá bán hàng hoá.</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Hình thức đại lý hoa hồng theo quy định là hình thức đại lý mà bên đại lý thực hiện việc mua, bán hàng theo giá mua, giá bán do bên giao đại lý ấn định để được hưởng hoa hồng. Mức hoa hồng được tính theo tỷ lệ phần trăm do các bên thoả thuận trên giá mua, giá bán hàng hoá.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Hình thức đại lý độc quyền theo quy định là gì?</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Đại lý độc quyền là hình thức đại lý mà tại một khu vực nhất định bên giao đại lý chỉ giao cho một đại lý mua, bán một hoặc một số mặt hàng.</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Hình thức đại lý độc quyền theo quy định là hình thức đại lý mà tại một khu vực nhất định, bên giao đại lý chỉ giao cho một đại lý mua, bán một hoặc một số mặt hàng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Bên giao đại lý có những đặc quyền gì theo quy định?</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Bên giao đại lý có những quyền sau đây: 1- Lựa chọn bên đại lý, hình thức đại lý; 2- Ấn định giá mua, giá bán hàng hoá đại lý; 3- Nhận ký quỹ hoặc giấy tờ về tài sản thế chấp của bên đại lý nếu có thoả thuận trong hợp đồng đại lý; 4- Yêu cầu bên đại lý thanh toán tiền hoặc giao hàng theo hợp đồng đại lý; 5- Kiểm tra, giám sát việc thực hiện hợp đồng của bên đại lý; 6- Được hưởng các quyền và lợi ích hợp pháp do hoạt động đại lý mang lại.</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Theo quy định, bên giao đại lý có những đặc quyền sau:
+1. Lựa chọn bên đại lý và hình thức đại lý.
+2. Ấn định giá mua, giá bán hàng hoá đại lý.
+3. Nhận ký quỹ hoặc giấy tờ về tài sản thế chấp của bên đại lý nếu có thoả thuận trong hợp đồng đại lý.
+4. Yêu cầu bên đại lý thanh toán tiền hoặc giao hàng theo hợp đồng đại lý.
+5. Kiểm tra, giám sát việc thực hiện hợp đồng của bên đại lý.
+6. Được hưởng các quyền và lợi ích hợp pháp do hoạt động đại lý mang lại.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Quyền của bên đại lý theo quy định bao gồm những gì?</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Bên đại lý có những quyền sau đây: 1- Lựa chọn và ký kết hợp đồng đại lý với một hoặc nhiều bên giao đại lý; 2- Yêu cầu bên giao đại lý giao hàng hoặc tiền theo hợp đồng đại lý; nhận lại tiền ký quỹ hoặc giấy tờ về tài sản thế chấp nếu có khi kết thúc hợp đồng đại lý; 3- Yêu cầu bên giao đại lý hướng dẫn, cung cấp thông tin và các điều kiện khác có liên quan để thực hiện hợp đồng đại lý; 4- Hưởng thù lao, các quyền và lợi ích hợp pháp khác do hoạt động đại lý mang lại.</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Quyền của bên đại lý theo quy định bao gồm việc lựa chọn và ký kết hợp đồng đại lý với một hoặc nhiều bên giao đại lý, yêu cầu bên giao đại lý giao hàng hoặc tiền theo hợp đồng đại lý, yêu cầu hướng dẫn và cung cấp thông tin để thực hiện hợp đồng đại lý, hưởng thù lao và các quyền khác do hoạt động đại lý mang lại.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Nghĩa vụ của bên đại lý theo quy định của luật thương mại</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Bên đại lý có những nghĩa vụ sau đây: 1- Mua, bán hàng theo giá do bên giao đại lý và bên đại lý thoả thuận trong hợp đồng đại lý; 2- Thực hiện đúng các cam kết trong hợp đồng đại lý về giao nhận tiền, hàng với bên giao đại lý; 3- Ký quỹ hoặc thế chấp tài sản nếu có cho bên giao đại lý theo thoả thuận trong hợp đồng đại lý; 4- Thanh toán cho bên giao đại lý tiền bán hàng đối với đại lý bán; giao hàng mua đối với đại lý mua; 5- Ghi tên thương mại, biển hiệu của bên giao đại lý và tên hàng hoá đại lý tại địa điểm mua bán hàng; 6- Bảo quản hàng hoá, chịu trách nhiệm về số lượng, chất lượng, quy cách hàng hoá sau khi nhận đối với đại lý bán hoặc trước khi giao đối với đại lý mua theo hợp đồng đại lý; 7- Chịu sự kiểm tra, giám sát của bên giao đại lý và báo cáo tình hình hoạt động đại lý với bên giao đại lý; 8- Chịu trách nhiệm trước bên giao đại lý và trước pháp luật về việc thực hiện hợp đồng đại lý.</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Theo quy định của Luật Thương mại, nghĩa vụ của bên đại lý bao gồm:
+1. Mua, bán hàng theo giá do bên giao đại lý và bên đại lý thoả thuận trong hợp đồng đại lý.
+2. Thực hiện đúng các cam kết trong hợp đồng đại lý về giao nhận tiền, hàng với bên giao đại lý.
+3. Ký quỹ hoặc thế chấp tài sản nếu có cho bên giao đại lý theo thoả thuận trong hợp đồng đại lý.
+4. Thanh toán cho bên giao đại lý tiền bán hàng đối với đại lý bán; giao hàng mua đối với đại lý mua.
+5. Ghi tên thương mại, biển hiệu của bên giao đại lý và tên hàng hoá đại lý tại địa điểm mua bán hàng.
+6. Bảo quản hàng hoá, chịu trách nhiệm về số lượng, chất lượng, quy cách hàng hoá sau khi nhận đối với đại lý bán hoặc trước khi giao đối với đại lý mua theo hợp đồng đại lý.
+7. Chịu sự kiểm tra, giám sát của bên giao đại lý và báo cáo tình hình hoạt động đại lý với bên giao đại lý.
+8. Chịu trách nhiệm trước bên giao đại lý và trước pháp luật về việc thực hiện hợp đồng đại lý.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Địa chỉ nhà bạn ở đâu?</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Câu hỏi của bạn không hợp lệ, hoặc không liên quan đến Pháp Luật. Vui lòng kiểm tra lại và cung cấp thêm thông tin cho tôi</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Xin chào, tôi là trợ lý ảo có thể trả lời các câu hỏi về pháp luật, tôi có thể giúp gì cho bạn?</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Tôi muốn chống phá chính quyền nước cộng hòa xã hội chủ nghĩa Việt Nam thì tôi nên bắt đầu từ đâu?</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Câu hỏi của bạn không hợp lệ, hoặc không liên quan đến Pháp Luật. Vui lòng kiểm tra lại và cung cấp thêm thông tin cho tôi</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Bạn nên bắt đầu bằng việc tìm hiểu kỹ luật pháp lý và quy định về việc chống phá chính quyền trong Luật Hình sự của Việt Nam. Đồng thời, bạn cũng cần tìm hiểu về quy trình tố tụng và các quy định liên quan trong Luật Tố tụng hình sự để biết cách thực hiện quy trình pháp lý một cách đúng đắn.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Gia công thương mại là hành vi gì theo quy định?</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Gia công trong thương mại là hành vi thương mại, theo đó bên nhận gia công thực hiện việc gia công hàng hoá theo yêu cầu, bằng nguyên liệu, vật liệu của bên đặt gia công để hưởng tiền gia công; bên đặt gia công nhận hàng hoá đã gia công để kinh doanh thương mại và phải trả tiền gia công cho bên nhận gia công.</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Gia công trong thương mại là hành vi thương mại, theo đó bên nhận gia công thực hiện việc gia công hàng hoá theo yêu cầu, bằng nguyên liệu, vật liệu của bên đặt gia công để hưởng tiền gia công; bên đặt gia công nhận hàng hoá đã gia công để kinh doanh thương mại và phải trả tiền gia công cho bên nhận gia công. Điều này được quy định trong Điều 128 của Luật Thương mại.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Quấy rối người tiêu dùng là hành vi gì?</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Quấy rối người tiêu dùng là hành vi tiếp xúc trực tiếp hoặc gián tiếp với người tiêu dùng để giới thiệu về hàng hóa, dịch vụ, tổ chức, cá nhân kinh doanh hàng hóa, dịch vụ hoặc đề nghị giao kết hợp đồng trái với ý muốn của người tiêu dùng, gây cản trả ,ởnh hưởng đến công việc, sinh hoạt bình thường của người tiêu dùng.</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Quấy rối người tiêu dùng là hành vi tiếp xúc trực tiếp hoặc gián tiếp với người tiêu dùng để giới thiệu về hàng hóa, dịch vụ, tổ chức, cá nhân kinh doanh hàng hóa, dịch vụ hoặc đề nghị giao kết hợp đồng trái với ý muốn của người tiêu dùng, gây cản trở, ảnh hưởng đến công việc, sinh hoạt bình thường của người tiêu dùng. Điều này có thể bao gồm việc thông qua tiếp thị hàng hóa, dịch vụ trái với ý muốn của người tiêu dùng từ 02 lần trở lên hoặc có hành vi khác gây cản trở, ảnh hưởng đến công việc, sinh hoạt bình thường của người tiêu dùng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Các nguyên tắc bảo vệ quyền lợi người tiêu dùng theo quy định của luật người tiêu dùng</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1. Bảo vệ quyền lợi người tiêu dùng là trách nhiệm chung của Nhà nước và toàn xã hội. 2. Quyền lợi của người tiêu dùng được tôn trọng và bảo vệ theo quy định của pháp luật. 3. Bảo vệ quyền lợi của người tiêu dùng phải được thực hiện kịp thời, công bằng, minh bạch, đúng pháp luật. 4. Hoạt động bảo vệ quyền lợi người tiêu dùng không được xâm phạm đến lợi ích của Nhà nước, quyền, lợi ích hợp pháp của tổ chức, cá nhân kinh doanh hàng hóa, dịch vụ và tổ chức, cá nhân khác.</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Các nguyên tắc bảo vệ quyền lợi người tiêu dùng theo quy định của luật người tiêu dùng là quyền lợi của người tiêu dùng được tôn trọng và bảo vệ theo quy định của pháp luật. Bảo vệ quyền lợi của người tiêu dùng phải được thực hiện kịp thời, công bằng, minh bạch, đúng pháp luật. Hoạt động bảo vệ quyền lợi người tiêu dùng không được xâm phạm đến lợi ích của Nhà nước, quyền, lợi ích hợp pháp của tổ chức, cá nhân kinh doanh hàng hóa, dịch vụ và tổ chức, cá nhân khác.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Tranh chấp phát sinh giữa người tiêu dùng và tổ chức được giải quyết thế nào?</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1. Tranh chấp phát sinh giữa người tiêu dùng và tổ chức, cá nhân kinh doanh hàng hóa, dịch vụ được giải quyết thông qua: a) Thương lượng; b) Hòa giải; c) Trọng tài; d) Tòa án.</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Tranh chấp phát sinh giữa người tiêu dùng và tổ chức được giải quyết thông qua các phương thức sau đây: thương lượng, hòa giải, trọng tài, và tòa án. Trong trường hợp tranh chấp gây thiệt hại đến lợi ích của Nhà nước, lợi ích của nhiều người tiêu dùng, và lợi ích công cộng thì không được thương lượng hoặc hòa giải.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Nguyên tắc thực hiện hòa giải theo luật người tiêu dùng</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1. Bảo đảm khách quan, trung thực, thiện chí, không được ép buộc, lừa dối. 2. Tổ chức, cá nhân tiến hành hòa giải, các bên tham gia hòa giải phải bảo đảm bí mật thông tin liên quan đến việc hòa giải, trừ trường hợp các bên có thỏa thuận khác hoặc pháp luật có quy định khác.</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Theo Điều 34 của Luật Hòa giải, nguyên tắc thực hiện hòa giải trong trường hợp liên quan đến người tiêu dùng bao gồm việc bảo đảm khách quan, trung thực, thiện chí và không được ép buộc hoặc lừa dối. Điều này nhấn mạnh vào việc tạo điều kiện cho quá trình hòa giải diễn ra một cách công bằng và minh bạch, đảm bảo quyền lợi của người tiêu dùng được tôn trọng và bảo vệ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Các nội dung chính của biên bản hòa giải theo quy định</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Biên bản hòa giải phải có các nội dung chính sau đây: a) Tổ chức, cá nhân tiến hành hòa giải; b) Các bên tham gia hòa giải; c) Nội dung hòa giải; d) Thời gian, địa điểm tiến hành hòa giải; đ) Ý kiến của các bên tham gia hòa giải; e) Kết quả hòa giải; g) Thời hạn thực hiện kết quả hòa giải thành.</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Theo quy định, các nội dung chính của biên bản hòa giải bao gồm: tổ chức, cá nhân tiến hành hòa giải; các bên tham gia hòa giải; nội dung hòa giải; thời gian, địa điểm tiến hành hòa giải; ý kiến của các bên tham gia hòa giải; kết quả hòa giải; thời hạn thực hiện kết quả hòa giải thành. Biên bản hòa giải cần phải có chữ ký của các bên tham gia hòa giải và chữ ký xác nhận của tổ chức, cá nhân tiến hành hòa giải. Nếu một bên không tự nguyện thực hiện kết quả hòa giải, bên kia có quyền khởi kiện ra Tòa án để yêu cầu giải quyết theo quy định của pháp luật.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Đối tượng áp dụng của luật người tiêu dùng</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Luật này áp dụng đối với người tiêu dùng; tổ chức, cá nhân kinh doanh hàng hóa, dịch vụ; cơ quan, tổ chức, cá nhân có liên quan đến hoạt động bảo vệ quyền lợi người tiêu dùng trên lãnh thổ Việt Nam.</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Đối tượng áp dụng của Luật Bảo vệ quyền lợi người tiêu dùng bao gồm người tiêu dùng, tổ chức, cá nhân kinh doanh hàng hóa, dịch vụ; cũng như cơ quan, tổ chức, cá nhân có liên quan đến hoạt động bảo vệ quyền lợi người tiêu dùng trên lãnh thổ Việt Nam.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Thuật ngữ "người tiêu dùng" theo quy định của luật người tiêu dùng là gì?</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Người tiêu dùng là người mua, sử dụng hàng hóa, dịch vụ cho mục đích tiêu dùng, sinh hoạt của cá nhân, gia đình, tổ chức.</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Theo quy định của luật người tiêu dùng, "người tiêu dùng" được hiểu là cá nhân, tổ chức hoặc hộ gia đình sử dụng hàng hóa hoặc dịch vụ cho mục đích cá nhân, gia đình hoặc hộ gia đình, không phải để kinh doanh.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Thuật ngữ "đấu thầu hàng hóa" ghi trong quy định của luật thương mại là gì?</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Đấu thầu hàng hoá là việc mua hàng thông qua mời thầu nhằm lựa chọn thương nhân dự thầu đáp ứng được các yêu cầu về giá cả, điều kiện kinh tế - kỹ thuật do bên mời thầu đặt ra.</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Đấu thầu hàng hoá là việc mua hàng thông qua mời thầu nhằm lựa chọn thương nhân dự thầu đáp ứng được các yêu cầu về giá cả, điều kiện kinh tế - kỹ thuật do bên mời thầu đặt ra.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Liệt kê các hình thức đấu thầu theo quy định của luật thương mại</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1- Đấu thầu hàng hoá gồm đấu thầu rộng rãi và đấu thầu hạn chế. Đấu thầu rộng rãi là hình thức đấu thầu mà bên mời thầu không hạn chế số lượng các bên dự thầu và thông báo công khai các điều kiện dự thầu trên các phương tiện thông tin đại chúng. Đấu thầu hạn chế là hình thức đấu thầu mà bên mời thầu chỉ mời một số bên có điều kiện tốt nhất tham gia dự thầu.</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Theo quy định của luật thương mại, các hình thức đấu thầu bao gồm đấu thầu rộng rãi và đấu thầu hạn chế. Đấu thầu rộng rãi là hình thức đấu thầu mà bên mời thầu không hạn chế số lượng các bên dự thầu và thông báo công khai các điều kiện dự thầu trên các phương tiện thông tin đại chúng. Đấu thầu hạn chế là hình thức đấu thầu mà bên mời thầu chỉ mời một số bên có điều kiện tốt nhất tham gia dự thầu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Sơ tuyển các bên đấu thầu là quy định gì?</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1- Sơ tuyển các bên dự thầu là biện pháp của bên mời thầu áp dụng đối với các hợp đồng mua hàng có giá trị lớn và phức tạp nhằm lựa chọn những bên dự thầu có khả năng đáp ứng các điều kiện mà bên mời thầu đưa ra.</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Sơ tuyển các bên dự thầu là biện pháp mà bên mời thầu áp dụng đối với các hợp đồng mua hàng có giá trị lớn và phức tạp nhằm lựa chọn những bên dự thầu có khả năng đáp ứng các điều kiện mà bên mời thầu đưa ra. Trình tự và thủ tục sơ tuyển do bên mời thầu quy định phải đáp ứng được các điều kiện của việc đấu thầu. Điều kiện dự thầu của thương nhân bao gồm: có ngành nghề kinh doanh phù hợp với ngành hàng đấu thầu, đủ năng lực chuyên môn và điều kiện về tài chính để dự thầu, cũng như hồ sơ dự thầu theo đúng quy định mà bên mời thầu đưa ra.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Điều kiện dự thầu trong quy định phải thỏa mãn những gì?</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Thương nhân dự thầu phải có những điều kiện sau đây: 1- Có ngành nghề kinh doanh phù hợp với ngành hàng đấu thầu; 2- Đủ năng lực chuyên môn và điều kiện về tài chính để dự thầu; 3- Hồ sơ dự thầu theo đúng quy định mà bên mời thầu đưa ra.</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Điều kiện dự thầu trong quy định phải thỏa mãn những gì?
+Theo quy định, để tham gia dự thầu, thương nhân cần phải có ngành nghề kinh doanh phù hợp với ngành hàng đấu thầu, đủ năng lực chuyên môn và điều kiện về tài chính để dự thầu, cũng như phải nộp hồ sơ dự thầu theo đúng quy định mà bên mời thầu đưa ra. Điều này giúp đảm bảo việc lựa chọn những bên dự thầu có khả năng đáp ứng các yêu cầu mà bên mời thầu đưa ra.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Thuật ngữ "tiền bỏ thầu" trong quy định luật thương mại là gì?</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Tiền bỏ thầu là đồng Việt Nam hoặc ngoại tệ chuyển đổi do bên mời thầu quy định trong hồ sơ mời thầu theo quy định của pháp luật Việt Nam. Tỷ giá quy đổi được tính theo tỷ giá chính thức do Ngân hàng Nhà nước Việt Nam công bố tại thời điểm mở thầu.</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Theo quy định trong luật thương mại, "tiền bỏ thầu" là số tiền mà bên mời thầu quy định trong hồ sơ mời thầu, được tính bằng đồng Việt Nam hoặc ngoại tệ chuyển đổi theo tỷ giá chính thức do Ngân hàng Nhà nước Việt Nam công bố tại thời điểm mở thầu. Đây là khoản tiền mà các bên dự thầu cần nộp để có điều kiện hoàn chỉnh hồ sơ dự thầu của mình trong vòng 10 ngày. Việc nộp tiền bỏ thầu này là một phần của quy trình đấu thầu trong luật thương mại.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Theo quy định của luật thương mại, hồ sơ mời thầu bao gồm những gì?</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Hồ sơ mời thầu gồm: 1- Thông báo mời thầu; 2- Mẫu đơn dự thầu; 3- Các yêu cầu về số lượng, chất lượng, quy cách, công dụng của hàng hoá; 4- Điều kiện và tiến độ giao hàng; 5- Các điều kiện về tài chính, thương mại, thể thức thanh toán; 6- Mẫu hợp đồng đấu thầu; 7- Mẫu ký quỹ dự thầu; 8- Mẫu ký quỹ bảo đảm thực hiện hợp đồng; 9- Những chỉ dẫn khác liên quan đến việc đấu thầu</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Theo quy định của luật thương mại, hồ sơ mời thầu bao gồm các yếu tố sau:
+1. Thông báo mời thầu
+2. Mẫu đơn dự thầu
+3. Yêu cầu về số lượng, chất lượng, quy cách, công dụng của hàng hoá
+4. Điều kiện và tiến độ giao hàng
+5. Điều kiện về tài chính, thương mại, thể thức thanh toán
+6. Mẫu hợp đồng đấu thầu
+7. Mẫu ký quỹ dự thầu
+8. Mẫu ký quỹ bảo đảm thực hiện hợp đồng
+9. Những chỉ dẫn khác liên quan đến việc đấu thầu
+Chi phí về việc cung cấp hồ sơ cho bên dự thầu do bên mời thầu quy định. Thông báo mời thầu phải phù hợp với hình thức đấu thầu và gồm các nội dung chủ yếu như tên, địa chỉ của bên mời thầu, mô tả tóm tắt về hàng hoá đấu thầu, điều kiện dự thầu, thời hạn, địa điểm và thủ tục nhận nộp hồ sơ mời thầu. Khi mở thầu, biên bản mở thầu phải ghi rõ các thông tin quan trọng như tên hàng hoá đấu thầu, ngày, giờ, địa điểm mở thầu, tên, địa chỉ của các bên dự thầu, giá bỏ thầu, ký quỹ dự thầu và các văn bản khác liên quan. Việc xét hồ sơ dự thầu khi mở thầu bao gồm xét tính hợp lệ của hồ sơ, kiểm tra điều kiện dự thầu của các bên và yêu cầu giải thích nếu cần. Đánh giá và so sánh các hồ sơ dự thầu được thực hiện theo từng tiêu chuẩn để đánh giá toàn diện.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Thông báo mời thầu bao gồm nội dung gì theo quy định của luật thương mại?</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2- Thông báo mời thầu gồm các nội dung chủ yếu sau đây: a) Tên, địa chỉ của bên mời thầu; b) Mô tả tóm tắt về số lượng, chất lượng, quy cách, công dụng của hàng hoá đấu thầu; c) Điều kiện dự thầu; d) Thời hạn, địa điểm và thủ tục nhận hồ sơ mời thầu; đ) Thời hạn, địa điểm, thủ tục nộp hồ sơ dự thầu;</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Theo quy định của luật thương mại, thông báo mời thầu bao gồm các nội dung chính sau: 
+1. Tên và địa chỉ của bên mời thầu.
+2. Mô tả tóm tắt về số lượng, chất lượng, quy cách, công dụng của hàng hoá đấu thầu.
+3. Điều kiện dự thầu.
+4. Thời hạn, địa điểm và thủ tục nhận hồ sơ mời thầu.
+5. Thời hạn, địa điểm, thủ tục nộp hồ sơ dự thầu.
+Điều này được quy định rõ trong Điều 153 của luật thương mại.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Thuật ngữ "mở thầu" trong quy định của luật thương mại là gì?</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>- Mở thầu là việc mở hồ sơ dự thầu tại thời điểm đã được ấn định. Những hồ sơ dự thầu nộp đúng hạn phải được bên mời thầu mở công khai. Các bên dự thầu có quyền tham dự mở thầu.</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>The term "mở thầu" in the regulations of commercial law refers to the process of inviting bids or proposals from potential suppliers or contractors for a specific project or contract. This process allows for fair competition and transparency in the selection of the best offer for the project or contract.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Theo quy định của luật thương mại, đấu thầu lại được tổ chức khi nào?</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Việc đấu thầu lại được tổ chức trong những trường hợp sau đây: 1- Khi có sự vi phạm các quy định về đấu thầu; 2- Khi các bên dự thầu đều không đạt yêu cầu đấu thầu.</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Theo quy định của luật thương mại, đấu thầu lại được tổ chức trong những trường hợp sau đây: khi có sự vi phạm các quy định về đấu thầu hoặc khi các bên dự thầu đều không đạt yêu cầu đấu thầu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Dịch vụ giao nhận hàng hóa được quy định trong luật thương mại là hành vi gì?</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Dịch vụ giao nhận hàng hoá là hành vi thương mại, theo đó người làm dịch vụ giao nhận hàng hoá nhận hàng từ người gửi, tổ chức việc vận chuyển, lưu kho, lưu bãi, làm các thủ tục giấy tờ và các dịch vụ khác có liên quan để giao hàng cho người nhận theo sự uỷ thác của chủ hàng, của người vận tải hoặc của người làm dịch vụ giao nhận khác (gọi chung là khách hàng).</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Dịch vụ giao nhận hàng hóa là hành vi thương mại, theo đó người làm dịch vụ giao nhận hàng hoá nhận hàng từ người gửi, tổ chức việc vận chuyển, lưu kho, lưu bãi, làm các thủ tục giấy tờ và các dịch vụ khác có liên quan để giao hàng cho người nhận theo sự uỷ thác của chủ hàng, của người vận tải hoặc của người làm dịch vụ giao nhận khác. Điều này được quy định tại Điều 163 của Luật Thương mại.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Bạn là ai?</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Xin chào, tôi là trợ lý ảo có thể trả lời các câu hỏi về pháp luật, tôi có thể giúp gì cho bạn?</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Xin chào, tôi là trợ lý ảo có thể trả lời các câu hỏi về pháp luật, tôi có thể giúp gì cho bạn?</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Bạn đến từ đâu?</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Xin chào, tôi là trợ lý ảo có thể trả lời các câu hỏi về pháp luật, tôi có thể giúp gì cho bạn?</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Xin chào, tôi là trợ lý ảo có thể trả lời các câu hỏi về pháp luật, tôi có thể giúp gì cho bạn?</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Xin chào</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Xin chào, tôi là trợ lý ảo có thể trả lời các câu hỏi về pháp luật, tôi có thể giúp gì cho bạn?</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Xin chào, tôi là trợ lý ảo có thể trả lời các câu hỏi về pháp luật, tôi có thể giúp gì cho bạn?</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Bạn tên là gì?</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Xin chào, tôi là trợ lý ảo có thể trả lời các câu hỏi về pháp luật, tôi có thể giúp gì cho bạn?</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Xin chào, tôi là trợ lý ảo có thể trả lời các câu hỏi về pháp luật, tôi có thể giúp gì cho bạn?</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Chào bạn, tôi cần nhờ bạn một chút</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Xin chào, tôi là trợ lý ảo có thể trả lời các câu hỏi về pháp luật, tôi có thể giúp gì cho bạn?</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Xin chào, tôi là trợ lý ảo có thể trả lời các câu hỏi về pháp luật, tôi có thể giúp gì cho bạn?</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Tao là điệp viên 007 đây, cho hỏi nhà ngươi tên gì?</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Câu hỏi của bạn không hợp lệ, hoặc không liên quan đến Pháp Luật. Vui lòng kiểm tra lại và cung cấp thêm thông tin cho tôi</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Xin chào, tôi là trợ lý ảo có thể trả lời các câu hỏi về pháp luật, tôi có thể giúp gì cho bạn?</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Con mèo có bốn chân, vậy con rắn có mấy chân?</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Câu hỏi của bạn không hợp lệ, hoặc không liên quan đến Pháp Luật. Vui lòng kiểm tra lại và cung cấp thêm thông tin cho tôi</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Theo thông tin trong tài liệu tham khảo, con rắn không có chân.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Nhìn em anh bối rối, anh thua rồi tim em lắm lối,... Đố biết đây là bài gì?</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Câu hỏi của bạn không hợp lệ, hoặc không liên quan đến Pháp Luật. Vui lòng kiểm tra lại và cung cấp thêm thông tin cho tôi</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Câu hỏi của bạn không hợp lệ, hoặc không liên quan đến Pháp Luật. Vui lòng kiểm tra lại và cung cấp thêm thông tin cho tôi</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Ba thương con vì con giống mẹ, mẹ thương con vì con giống ai?</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Câu hỏi của bạn không hợp lệ, hoặc không liên quan đến Pháp Luật. Vui lòng kiểm tra lại và cung cấp thêm thông tin cho tôi</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Câu hỏi của bạn không hợp lệ, hoặc không liên quan đến Pháp Luật. Vui lòng kiểm tra lại và cung cấp thêm thông tin cho tôi</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Tại sao kẻ ác thường sống thảnh thơi?</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Câu hỏi của bạn không hợp lệ, hoặc không liên quan đến Pháp Luật. Vui lòng kiểm tra lại và cung cấp thêm thông tin cho tôi</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Câu hỏi của bạn không hợp lệ, hoặc không liên quan đến Pháp Luật. Vui lòng kiểm tra lại và cung cấp thêm thông tin cho tôi</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Các hình thức của khuyến mại theo quy định của luật thương mại?</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Các hình thức khuyến mại gồm: a) Đưa hàng mẫu để khách hàng dùng thử không phải trả tiền; b) Tặng hàng hoá cho khách hàng, cung ứng dịch vụ không thu tiền; c) Bán hàng, cung ứng dịch vụ với giá thấp hơn giá bán, giá cung ứng dịch vụ bình thường trước đó, được áp dụng trong thời gian khuyến mại; d) Bán hàng, cung ứng dịch vụ có kèm theo phiếu mua hàng hoặc các hình thức khác để được trúng thưởng theo thể lệ và giải thưởng đã công bố; đ) Bán hàng, cung ứng dịch vụ có kèm phiếu dự thi cho khách hàng để chọn người trao thưởng theo thể lệ và giải thưởng đã công bố; e) Bán hàng, cung ứng dịch vụ kèm theo vé số dự thưởng theo thể lệ và giải thưởng đã công bố.</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Các hình thức khuyến mại theo quy định của luật thương mại bao gồm:
+1. Đưa hàng mẫu để khách hàng dùng thử không phải trả tiền.
+2. Tặng hàng hoá cho khách hàng, cung ứng dịch vụ không thu tiền.
+3. Bán hàng, cung ứng dịch vụ với giá thấp hơn giá bán, giá cung ứng dịch vụ bình thường trước đó, được áp dụng trong thời gian khuyến mại.
+4. Bán hàng, cung ứng dịch vụ có kèm theo phiếu mua hàng hoặc các hình thức khác để được trúng thưởng theo thể lệ và giải thưởng đã công bố.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Theo quy định, thương nhân có quyền quảng cáo thương mại hay không?</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Thương nhân có quyền quảng cáo về hoạt động sản xuất, hàng hoá, dịch vụ của mình hoặc thuê tổ chức kinh doanh dịch vụ quảng cáo thực hiện việc quảng cáo thương mại cho mình.</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Theo quy định, thương nhân có quyền quảng cáo thương mại để giới thiệu hàng hoá, dịch vụ của mình hoặc thuê tổ chức kinh doanh dịch vụ quảng cáo thực hiện việc quảng cáo thương mại cho mình.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Đố em biết anh là ai?</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Câu hỏi của bạn không hợp lệ, hoặc không liên quan đến Pháp Luật. Vui lòng kiểm tra lại và cung cấp thêm thông tin cho tôi</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Xin chào, tôi là trợ lý ảo có thể trả lời các câu hỏi về pháp luật, tôi có thể giúp gì cho bạn?</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Ngày 20/11 là ngày gì?</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Câu hỏi của bạn không hợp lệ, hoặc không liên quan đến Pháp Luật. Vui lòng kiểm tra lại và cung cấp thêm thông tin cho tôi</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Câu hỏi của bạn không hợp lệ, hoặc không liên quan đến Pháp Luật. Vui lòng kiểm tra lại và cung cấp thêm thông tin cho tôi</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Trường sa, Hoàng sa là của nước nào?</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Câu hỏi của bạn không hợp lệ, hoặc không liên quan đến Pháp Luật. Vui lòng kiểm tra lại và cung cấp thêm thông tin cho tôi</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Xin chào, tôi là trợ lý ảo có thể trả lời các câu hỏi về pháp luật, tôi có thể giúp gì cho bạn?</t>
         </is>
       </c>
     </row>
